--- a/data/trans_orig/P6705-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>49200</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38591</v>
+        <v>37388</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60544</v>
+        <v>60638</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3907627584740779</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3065005993617376</v>
+        <v>0.2969441140681546</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4808622929493523</v>
+        <v>0.4816050141916001</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -764,19 +764,19 @@
         <v>32138</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23280</v>
+        <v>23052</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42393</v>
+        <v>42614</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.367157035208118</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2659574658998762</v>
+        <v>0.2633631031355025</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4843192445618503</v>
+        <v>0.4868403951284497</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -785,19 +785,19 @@
         <v>81338</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66828</v>
+        <v>67648</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95975</v>
+        <v>97099</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3810821075386831</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.313099604336776</v>
+        <v>0.3169426335499826</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4496591232501967</v>
+        <v>0.4549262310578225</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>8412</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3982</v>
+        <v>3805</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15052</v>
+        <v>15303</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06680939975813653</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03162517966862627</v>
+        <v>0.03022390323630518</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1195504355230767</v>
+        <v>0.1215416999651189</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -835,19 +835,19 @@
         <v>7055</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2964</v>
+        <v>2956</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15167</v>
+        <v>14714</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08060218170053267</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03385936680239957</v>
+        <v>0.03376557129352294</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1732784707279519</v>
+        <v>0.168100795358303</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -856,19 +856,19 @@
         <v>15467</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9060</v>
+        <v>8953</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24821</v>
+        <v>24834</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07246578680919114</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04244860101766534</v>
+        <v>0.04194691878286899</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1162892634336941</v>
+        <v>0.1163536860195314</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>31633</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22616</v>
+        <v>22787</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42362</v>
+        <v>42560</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2512367322413527</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1796225512143429</v>
+        <v>0.1809842091974218</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3364558587226649</v>
+        <v>0.3380207968290373</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -906,19 +906,19 @@
         <v>21163</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12999</v>
+        <v>13547</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30024</v>
+        <v>30149</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2417769273635151</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1485087016029797</v>
+        <v>0.1547647528009313</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3430125595758999</v>
+        <v>0.3444405981407163</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>49</v>
@@ -927,19 +927,19 @@
         <v>52796</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>40173</v>
+        <v>39190</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65914</v>
+        <v>64895</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2473572887730245</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.188217130674756</v>
+        <v>0.1836130155537707</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3088183516757975</v>
+        <v>0.3040435523650383</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>20610</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13653</v>
+        <v>13028</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31022</v>
+        <v>29921</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1636883862817951</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1084369909392629</v>
+        <v>0.1034754800816143</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2463867555737045</v>
+        <v>0.2376389422052587</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -977,19 +977,19 @@
         <v>14126</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7991</v>
+        <v>7308</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23453</v>
+        <v>22788</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.161382145137761</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09129212129711536</v>
+        <v>0.08348608042279815</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2679436441721216</v>
+        <v>0.2603417107482172</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -998,19 +998,19 @@
         <v>34736</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24304</v>
+        <v>24594</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48111</v>
+        <v>49815</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.162742602276929</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1138687611996237</v>
+        <v>0.1152253448029103</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2254098191097405</v>
+        <v>0.2333918391106189</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>16054</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9450</v>
+        <v>9399</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25398</v>
+        <v>25462</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1275027232446377</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07505462942557631</v>
+        <v>0.07464592415194247</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2017219722173453</v>
+        <v>0.2022266668765521</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1048,19 +1048,19 @@
         <v>13049</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7465</v>
+        <v>7020</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21155</v>
+        <v>21344</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1490817105900732</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08527907570272834</v>
+        <v>0.08019521741423881</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2416906821754189</v>
+        <v>0.2438451612668995</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -1069,19 +1069,19 @@
         <v>29103</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21025</v>
+        <v>19278</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42000</v>
+        <v>40857</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1363522146021722</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09850483296502457</v>
+        <v>0.09031942342548614</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1967759869142376</v>
+        <v>0.1914207896571814</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>32587</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22898</v>
+        <v>23464</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44444</v>
+        <v>45200</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1891977793949907</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1329447044219444</v>
+        <v>0.1362302829484151</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2580363883593312</v>
+        <v>0.2624221277497855</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1194,19 +1194,19 @@
         <v>30353</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20439</v>
+        <v>21029</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41942</v>
+        <v>41865</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2473972861059319</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1665945306579311</v>
+        <v>0.1714059384209587</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3418550091779691</v>
+        <v>0.3412345554468642</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -1215,19 +1215,19 @@
         <v>62940</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49594</v>
+        <v>50651</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79170</v>
+        <v>79325</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2134084299409717</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1681563580167595</v>
+        <v>0.1717394253021504</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2684393199798586</v>
+        <v>0.2689624410914068</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>14548</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7714</v>
+        <v>8438</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23502</v>
+        <v>23843</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08446284625078977</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0447864332829234</v>
+        <v>0.04898804916215198</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1364477076718116</v>
+        <v>0.1384286516961556</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1265,19 +1265,19 @@
         <v>10978</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5164</v>
+        <v>5667</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18463</v>
+        <v>19321</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08947628460331626</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04208991475617902</v>
+        <v>0.04619178103120526</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1504844345700125</v>
+        <v>0.1574770811550047</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -1286,19 +1286,19 @@
         <v>25526</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17334</v>
+        <v>16868</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36929</v>
+        <v>35813</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08654840695132435</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05877320000418454</v>
+        <v>0.05719308919736625</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.125215199975975</v>
+        <v>0.1214305930495439</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>29956</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20117</v>
+        <v>19914</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41599</v>
+        <v>41038</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1739180857367159</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1167979185496056</v>
+        <v>0.1156199521632728</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2415155276667528</v>
+        <v>0.2382607781364137</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -1336,19 +1336,19 @@
         <v>12668</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6465</v>
+        <v>6482</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20949</v>
+        <v>20597</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1032545314631439</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05269187890352273</v>
+        <v>0.05283633661841622</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1707501348266893</v>
+        <v>0.1678805320383109</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>39</v>
@@ -1357,19 +1357,19 @@
         <v>42624</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>31014</v>
+        <v>31440</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>56887</v>
+        <v>57478</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1445224651285985</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.105156517933568</v>
+        <v>0.1066009718148251</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1928832428880138</v>
+        <v>0.19488907181937</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>12768</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7596</v>
+        <v>6895</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20692</v>
+        <v>21748</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07412645716828466</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04410197538244796</v>
+        <v>0.04003288698009505</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1201345966217056</v>
+        <v>0.1262672231638278</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1407,19 +1407,19 @@
         <v>13972</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7909</v>
+        <v>7993</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22591</v>
+        <v>22518</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1138794060176166</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06446700003029777</v>
+        <v>0.06515189802033809</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1841359705534543</v>
+        <v>0.1835386953204305</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -1428,19 +1428,19 @@
         <v>26739</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18094</v>
+        <v>18315</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38591</v>
+        <v>38977</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09066344875385932</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06134965164672525</v>
+        <v>0.06210046003867792</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1308474796278439</v>
+        <v>0.1321577687353006</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>82382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68436</v>
+        <v>68672</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>96669</v>
+        <v>96044</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.478294831449219</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.397328781928177</v>
+        <v>0.3986986773847228</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5612438569409014</v>
+        <v>0.5576185945030441</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -1478,19 +1478,19 @@
         <v>54718</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43650</v>
+        <v>42855</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>66975</v>
+        <v>66162</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4459924918099913</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3557824903493739</v>
+        <v>0.3493045967450823</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5459004603910765</v>
+        <v>0.5392666538879055</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>125</v>
@@ -1499,19 +1499,19 @@
         <v>137099</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>120748</v>
+        <v>119242</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>156314</v>
+        <v>154247</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4648572492252462</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4094138703125436</v>
+        <v>0.4043084109324261</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5300088940588515</v>
+        <v>0.5230000221494259</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>27256</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19231</v>
+        <v>18916</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37802</v>
+        <v>37262</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1958159532814552</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1381620993604964</v>
+        <v>0.1358969214855235</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2715764311408119</v>
+        <v>0.267697559664511</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1624,19 +1624,19 @@
         <v>23458</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15613</v>
+        <v>15660</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32267</v>
+        <v>32859</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2882502628462866</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1918549046015954</v>
+        <v>0.1924247584657645</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.396495128304408</v>
+        <v>0.4037724973241678</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -1645,19 +1645,19 @@
         <v>50714</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38702</v>
+        <v>38872</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64867</v>
+        <v>63577</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2299193886098117</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1754613367582279</v>
+        <v>0.1762299549065673</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2940844130338259</v>
+        <v>0.2882345460330282</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>27956</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19761</v>
+        <v>19956</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38688</v>
+        <v>39211</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2008412190502962</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1419692804732584</v>
+        <v>0.1433701292077038</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2779428982209215</v>
+        <v>0.281702895373756</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1695,19 +1695,19 @@
         <v>17760</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11329</v>
+        <v>11227</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26453</v>
+        <v>26492</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2182320368915857</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1392076923997254</v>
+        <v>0.1379573551850136</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3250495294544322</v>
+        <v>0.3255351862519659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -1716,19 +1716,19 @@
         <v>45716</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34503</v>
+        <v>34742</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>58861</v>
+        <v>58722</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2072575230650048</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1564251646625539</v>
+        <v>0.1575056311505267</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2668537163464532</v>
+        <v>0.2662245600712355</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>50869</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40839</v>
+        <v>39825</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>62200</v>
+        <v>61486</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3654546035537469</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2933969562627778</v>
+        <v>0.2861137786275665</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4468557030340807</v>
+        <v>0.441725545380402</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -1766,19 +1766,19 @@
         <v>27411</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19767</v>
+        <v>19717</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36383</v>
+        <v>37069</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3368320724968814</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.242897642770332</v>
+        <v>0.2422879692472726</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4470711242705979</v>
+        <v>0.4555054533356264</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>79</v>
@@ -1787,19 +1787,19 @@
         <v>78280</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>63904</v>
+        <v>64991</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>91848</v>
+        <v>92934</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3548943836372769</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2897185168686933</v>
+        <v>0.2946428763227343</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4164052362820206</v>
+        <v>0.4213257381278021</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>23422</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15492</v>
+        <v>15527</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33926</v>
+        <v>34108</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1682699436579012</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.111298910049691</v>
+        <v>0.1115517736800765</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2437340597809777</v>
+        <v>0.2450395764705948</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1837,19 +1837,19 @@
         <v>5901</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1981</v>
+        <v>1986</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11812</v>
+        <v>12117</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07250665990921697</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0243444822414901</v>
+        <v>0.02439930375773537</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1451405553825184</v>
+        <v>0.1488966596836021</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -1858,19 +1858,19 @@
         <v>29323</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19543</v>
+        <v>19988</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40805</v>
+        <v>40591</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1329382906220367</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08860034647448865</v>
+        <v>0.09061677432676406</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1849945680987022</v>
+        <v>0.1840251247128882</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>9690</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4748</v>
+        <v>4880</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16319</v>
+        <v>16735</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06961828045660053</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03410829377587167</v>
+        <v>0.03505799237340823</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1172398436115416</v>
+        <v>0.1202245068213318</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1908,19 +1908,19 @@
         <v>6850</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2182</v>
+        <v>2775</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14040</v>
+        <v>13490</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08417896785602928</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0268160485867746</v>
+        <v>0.03410390400127453</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.172525091303269</v>
+        <v>0.1657635707097291</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -1929,19 +1929,19 @@
         <v>16541</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9925</v>
+        <v>9821</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25286</v>
+        <v>26127</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07499041406586984</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04499669692917632</v>
+        <v>0.04452588320876241</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1146384840773952</v>
+        <v>0.1184505165310132</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>21235</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13837</v>
+        <v>14173</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31110</v>
+        <v>31597</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1488208629053711</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09697385037309368</v>
+        <v>0.09933060122683761</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2180274685591091</v>
+        <v>0.221440796648961</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2054,19 +2054,19 @@
         <v>14060</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7728</v>
+        <v>7679</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21788</v>
+        <v>21926</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.137244762613977</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07543184360745413</v>
+        <v>0.07495375534554974</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2126732035475903</v>
+        <v>0.214018781998064</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -2075,19 +2075,19 @@
         <v>35296</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25473</v>
+        <v>24851</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48341</v>
+        <v>47330</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1439829818276302</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1039127106802477</v>
+        <v>0.10137545683508</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1971988094944759</v>
+        <v>0.1930774618803967</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>32485</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22464</v>
+        <v>23569</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>43746</v>
+        <v>43655</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2276604981054191</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1574364724468183</v>
+        <v>0.1651784886332283</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3065861602248932</v>
+        <v>0.3059455763892497</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>25</v>
@@ -2125,19 +2125,19 @@
         <v>27626</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19609</v>
+        <v>19610</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>37557</v>
+        <v>38325</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2696607834788056</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1914049792972269</v>
+        <v>0.1914113864055353</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3665971698480314</v>
+        <v>0.3740957467676046</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>57</v>
@@ -2146,19 +2146,19 @@
         <v>60111</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>47082</v>
+        <v>46972</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>74702</v>
+        <v>75324</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.245213247369235</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.192063398347271</v>
+        <v>0.1916170188667284</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3047376384327142</v>
+        <v>0.3072745234590458</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>57642</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>46355</v>
+        <v>45115</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>70538</v>
+        <v>71275</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4039705639788719</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3248676261967552</v>
+        <v>0.3161736702643493</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4943459504616396</v>
+        <v>0.4995121274652545</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>29</v>
@@ -2196,19 +2196,19 @@
         <v>30174</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21261</v>
+        <v>21435</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>39823</v>
+        <v>40345</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2945271531749496</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2075285058528178</v>
+        <v>0.2092249823644206</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3887143019534255</v>
+        <v>0.393811513425028</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>80</v>
@@ -2217,19 +2217,19 @@
         <v>87816</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>72905</v>
+        <v>72368</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>104465</v>
+        <v>104911</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3582319997919888</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2974062684603422</v>
+        <v>0.2952138466967173</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4261507566993324</v>
+        <v>0.4279669354859446</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>19408</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11457</v>
+        <v>11603</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29744</v>
+        <v>30179</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1360155661135016</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0802930291815032</v>
+        <v>0.08131525639894384</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2084519143186329</v>
+        <v>0.2115051646085936</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -2267,19 +2267,19 @@
         <v>23954</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15577</v>
+        <v>15426</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32452</v>
+        <v>33070</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2338145698961031</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1520481486171475</v>
+        <v>0.1505741420070076</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3167612462873536</v>
+        <v>0.3227953228098692</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>39</v>
@@ -2288,19 +2288,19 @@
         <v>43362</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30254</v>
+        <v>31550</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56773</v>
+        <v>56366</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1768877024903352</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1234160010726939</v>
+        <v>0.1287027880971859</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2315984773318867</v>
+        <v>0.2299360915357279</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>11919</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6567</v>
+        <v>6421</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21099</v>
+        <v>21264</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08353250889683621</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04602119448942558</v>
+        <v>0.04499827059994464</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1478700336080954</v>
+        <v>0.1490232259301136</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2338,19 +2338,19 @@
         <v>6634</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2788</v>
+        <v>2800</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12681</v>
+        <v>12596</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06475273083616474</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02721542091708891</v>
+        <v>0.02733384541204551</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1237777281966108</v>
+        <v>0.1229538348280512</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -2359,19 +2359,19 @@
         <v>18553</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11461</v>
+        <v>10933</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>29464</v>
+        <v>27846</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07568406852081079</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04675314026100447</v>
+        <v>0.04459959272295245</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1201933117450119</v>
+        <v>0.113595108450037</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>35490</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>26645</v>
+        <v>26612</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>45461</v>
+        <v>45526</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4311479815000815</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3237041994649832</v>
+        <v>0.3232975170393721</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5522841928171298</v>
+        <v>0.5530772040953866</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -2484,19 +2484,19 @@
         <v>13720</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8326</v>
+        <v>7676</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20586</v>
+        <v>20390</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2552691011724792</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1549106849050606</v>
+        <v>0.1428282555674789</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.383022854237338</v>
+        <v>0.379384267916886</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>46</v>
@@ -2505,19 +2505,19 @@
         <v>49209</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>38192</v>
+        <v>37974</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>60121</v>
+        <v>61198</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3616722845079376</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2806991892559842</v>
+        <v>0.2790958500409266</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4418732606837084</v>
+        <v>0.449786351120127</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>10922</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5316</v>
+        <v>5216</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19007</v>
+        <v>20087</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1326879948086527</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06458667678623213</v>
+        <v>0.06336366220569134</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2309123701964384</v>
+        <v>0.2440314469817465</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -2555,19 +2555,19 @@
         <v>7648</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3738</v>
+        <v>3097</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12991</v>
+        <v>13986</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1423002060244758</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06955768637376124</v>
+        <v>0.05762326835386362</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2417146324383231</v>
+        <v>0.2602210614479197</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>17</v>
@@ -2576,19 +2576,19 @@
         <v>18570</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>11733</v>
+        <v>10791</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29274</v>
+        <v>28362</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1364850116682728</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08623510774516302</v>
+        <v>0.07930950281584583</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2151520524667539</v>
+        <v>0.2084550923176412</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>28842</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19900</v>
+        <v>20426</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>38371</v>
+        <v>37616</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3503928145016151</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2417605482919458</v>
+        <v>0.2481499125365716</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.466148601716762</v>
+        <v>0.4569835296942891</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>16</v>
@@ -2626,19 +2626,19 @@
         <v>16731</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10445</v>
+        <v>10462</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24156</v>
+        <v>24645</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3113019694518277</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1943394128037054</v>
+        <v>0.1946561636700429</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4494531959895032</v>
+        <v>0.4585428255856258</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>43</v>
@@ -2647,19 +2647,19 @@
         <v>45573</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>35668</v>
+        <v>34361</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>57275</v>
+        <v>57980</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3349511440703095</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2621518997253812</v>
+        <v>0.2525449211937505</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4209546040244833</v>
+        <v>0.4261364971752614</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>3077</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>993</v>
+        <v>1004</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8413</v>
+        <v>8532</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03738330440049523</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01206440607770185</v>
+        <v>0.01220222509341594</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1022047910467927</v>
+        <v>0.1036506591663529</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -2697,19 +2697,19 @@
         <v>6850</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2898</v>
+        <v>2938</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>13974</v>
+        <v>13692</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1274573234357465</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05392461032213001</v>
+        <v>0.05467054825516381</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2600058541076012</v>
+        <v>0.2547585823474359</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>9</v>
@@ -2718,19 +2718,19 @@
         <v>9928</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4935</v>
+        <v>4933</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>18054</v>
+        <v>18131</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07296435450555207</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03627433722685609</v>
+        <v>0.03625307382114595</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1326931604135828</v>
+        <v>0.1332571048686149</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>3983</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1020</v>
+        <v>985</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9677</v>
+        <v>9383</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0483879047891555</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01239593996864096</v>
+        <v>0.01196040556820835</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1175673033026389</v>
+        <v>0.1139886986135706</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -2768,19 +2768,19 @@
         <v>8797</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4019</v>
+        <v>4069</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15440</v>
+        <v>15486</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1636713999154709</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0747786125540872</v>
+        <v>0.07571543507867057</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2872780132295489</v>
+        <v>0.2881302073788549</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>12</v>
@@ -2789,19 +2789,19 @@
         <v>12780</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6664</v>
+        <v>6869</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>21183</v>
+        <v>21077</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09392720524792803</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04897665023372547</v>
+        <v>0.05048245163617218</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1556885944391461</v>
+        <v>0.1549089957175657</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>23402</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>15626</v>
+        <v>15552</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>33332</v>
+        <v>34477</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2009975223112647</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1342073210090439</v>
+        <v>0.133573446166059</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2862830333268948</v>
+        <v>0.2961202413078323</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>12</v>
@@ -2914,19 +2914,19 @@
         <v>13052</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7258</v>
+        <v>7120</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20580</v>
+        <v>20605</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2360612430136474</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1312624606948593</v>
+        <v>0.1287784196570436</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3721989292729786</v>
+        <v>0.3726567122265219</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>35</v>
@@ -2935,19 +2935,19 @@
         <v>36454</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>26656</v>
+        <v>26475</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>48379</v>
+        <v>49577</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2122876112856193</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1552261332295767</v>
+        <v>0.154171719771626</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2817277294573532</v>
+        <v>0.2887052593288638</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>12785</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6901</v>
+        <v>6929</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>20667</v>
+        <v>20734</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1098067543153024</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05927627970246352</v>
+        <v>0.05951323112184412</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1775033572237258</v>
+        <v>0.1780859904085227</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>14</v>
@@ -2985,19 +2985,19 @@
         <v>14013</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>7510</v>
+        <v>7994</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>20566</v>
+        <v>20823</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2534422174761116</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1358268496113631</v>
+        <v>0.1445816879918343</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3719476052072547</v>
+        <v>0.376599094448057</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>27</v>
@@ -3006,19 +3006,19 @@
         <v>26798</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>18450</v>
+        <v>18785</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>36709</v>
+        <v>37980</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1560556157160257</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1074431581521055</v>
+        <v>0.1093949933983828</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2137730754809348</v>
+        <v>0.2211737179230279</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>42059</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>32129</v>
+        <v>32109</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>53546</v>
+        <v>54422</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3612396645075475</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2759510037056082</v>
+        <v>0.2757797471997223</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4599025725212087</v>
+        <v>0.4674253322376545</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>16</v>
@@ -3056,19 +3056,19 @@
         <v>18110</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>11456</v>
+        <v>11652</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>26761</v>
+        <v>26109</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3275311724725023</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2071895673104068</v>
+        <v>0.2107366842138526</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4840015102784523</v>
+        <v>0.4722099466269131</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>52</v>
@@ -3077,19 +3077,19 @@
         <v>60169</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>47621</v>
+        <v>46788</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>73825</v>
+        <v>75376</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3503859425794829</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2773146005446169</v>
+        <v>0.2724653114064971</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4299116528677853</v>
+        <v>0.4389460712490996</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>22151</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>13986</v>
+        <v>14990</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>32720</v>
+        <v>33583</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1902497888287058</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1201218355469309</v>
+        <v>0.1287454076180453</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2810275690075182</v>
+        <v>0.2884377565841545</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4</v>
@@ -3127,19 +3127,19 @@
         <v>4249</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>991</v>
+        <v>1066</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>9723</v>
+        <v>10283</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07684463557347672</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01792387835261389</v>
+        <v>0.01928422403262409</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1758458373803394</v>
+        <v>0.1859805539660986</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>23</v>
@@ -3148,19 +3148,19 @@
         <v>26399</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>17244</v>
+        <v>17190</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>37729</v>
+        <v>38143</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1537347172745666</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1004195081134346</v>
+        <v>0.1001068650488496</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.219710967749895</v>
+        <v>0.2221190516986271</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>16033</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>9863</v>
+        <v>9709</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>23947</v>
+        <v>24603</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1377062700371796</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08471491177482275</v>
+        <v>0.08339404784271431</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2056761408124189</v>
+        <v>0.2113173646969152</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>6</v>
@@ -3198,19 +3198,19 @@
         <v>5868</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2681</v>
+        <v>2014</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>11669</v>
+        <v>11463</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1061207314642621</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04848493394041389</v>
+        <v>0.03642964055786226</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2110478706627186</v>
+        <v>0.2073227381377941</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>22</v>
@@ -3219,19 +3219,19 @@
         <v>21901</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>14551</v>
+        <v>14184</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>32100</v>
+        <v>32313</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1275361131443055</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08473846940947802</v>
+        <v>0.08260161230370094</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1869330557644253</v>
+        <v>0.1881708197294179</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>42730</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>31301</v>
+        <v>30548</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>54682</v>
+        <v>58520</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1577018928046449</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.115520725890668</v>
+        <v>0.1127441068985468</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2018145112871207</v>
+        <v>0.2159775635081848</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>48</v>
@@ -3344,19 +3344,19 @@
         <v>51753</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>40397</v>
+        <v>39206</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>65086</v>
+        <v>64361</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2841023035368743</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2217622125745386</v>
+        <v>0.2152251263614931</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.357288923058203</v>
+        <v>0.3533099762306107</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>86</v>
@@ -3365,19 +3365,19 @@
         <v>94484</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>76581</v>
+        <v>78715</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>113699</v>
+        <v>112774</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.208518038504681</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1690080395074003</v>
+        <v>0.1737169807621281</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2509255936144133</v>
+        <v>0.2488830369983051</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>63414</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>49383</v>
+        <v>50256</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>77413</v>
+        <v>78855</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2340389880520947</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1822560558082804</v>
+        <v>0.1854775168111786</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2857050595627018</v>
+        <v>0.2910284907960556</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>39</v>
@@ -3415,19 +3415,19 @@
         <v>40110</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>29959</v>
+        <v>29524</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>52273</v>
+        <v>52839</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2201842004155774</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1644618164097957</v>
+        <v>0.1620739259607531</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2869517489987189</v>
+        <v>0.2900599091961841</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>98</v>
@@ -3436,19 +3436,19 @@
         <v>103524</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>85412</v>
+        <v>86897</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>121791</v>
+        <v>122297</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2284690147972467</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1884967714234103</v>
+        <v>0.1917756691180698</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2687831492999946</v>
+        <v>0.2699001967341166</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>96048</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>79704</v>
+        <v>80836</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>113934</v>
+        <v>114697</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3544810463478937</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2941595141818751</v>
+        <v>0.2983378198864278</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4204910223687132</v>
+        <v>0.4233077433687658</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>43</v>
@@ -3486,19 +3486,19 @@
         <v>46516</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>35275</v>
+        <v>35179</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>59036</v>
+        <v>59207</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2553533870505146</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1936423063861345</v>
+        <v>0.1931146605243313</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3240794656607913</v>
+        <v>0.3250211533838765</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>134</v>
@@ -3507,19 +3507,19 @@
         <v>142565</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>123787</v>
+        <v>122198</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>163021</v>
+        <v>163620</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3146292329829016</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2731871688865319</v>
+        <v>0.2696803422268354</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.359774461963851</v>
+        <v>0.3610955489420032</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>45587</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>33492</v>
+        <v>33113</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>60281</v>
+        <v>59940</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1682450651275597</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1236069100296746</v>
+        <v>0.1222073501467378</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.222476252937117</v>
+        <v>0.2212192793364516</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>24</v>
@@ -3557,19 +3557,19 @@
         <v>24756</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>16664</v>
+        <v>17424</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>35674</v>
+        <v>35263</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1359008081642067</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.09147815153307065</v>
+        <v>0.09564765866425282</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1958307595080538</v>
+        <v>0.1935756080131323</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>65</v>
@@ -3578,19 +3578,19 @@
         <v>70343</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>54448</v>
+        <v>55495</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>87420</v>
+        <v>87623</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1552418599568817</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1201632687529439</v>
+        <v>0.1224722442076245</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1929293365812652</v>
+        <v>0.1933774936553229</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>23176</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>14871</v>
+        <v>14954</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>33036</v>
+        <v>33246</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.08553300766780693</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.05488373520898367</v>
+        <v>0.05519107571580429</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1219237736121856</v>
+        <v>0.1227001777957053</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>17</v>
@@ -3628,19 +3628,19 @@
         <v>19029</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>11386</v>
+        <v>11510</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>30223</v>
+        <v>29548</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.104459300832827</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.06250619998117397</v>
+        <v>0.06318307122461464</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.165908166563301</v>
+        <v>0.162202496304449</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>40</v>
@@ -3649,19 +3649,19 @@
         <v>42204</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>31382</v>
+        <v>30519</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>55733</v>
+        <v>55559</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.09314185375828904</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.06925726727017407</v>
+        <v>0.06735287363572501</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1229981484454916</v>
+        <v>0.1226146852422353</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>44594</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>33340</v>
+        <v>32214</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>58869</v>
+        <v>58929</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1237929204996498</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.09255159760092287</v>
+        <v>0.08942503043599882</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1634205844736694</v>
+        <v>0.1635861415789089</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>25</v>
@@ -3774,19 +3774,19 @@
         <v>29530</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>19657</v>
+        <v>20249</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>42091</v>
+        <v>42509</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1141872718452287</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.07600924016869652</v>
+        <v>0.07829829424896123</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1627616470656008</v>
+        <v>0.1643758014766068</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>66</v>
@@ -3795,19 +3795,19 @@
         <v>74124</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>58775</v>
+        <v>58433</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>90612</v>
+        <v>95935</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1197788019239695</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.09497634069751509</v>
+        <v>0.09442376316625381</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1464226077965295</v>
+        <v>0.1550231773532454</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>45064</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>33362</v>
+        <v>32936</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>59839</v>
+        <v>58885</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1250976303866379</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.09261261769889127</v>
+        <v>0.09143083496396978</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1661120314922253</v>
+        <v>0.1634630824947406</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>27</v>
@@ -3845,19 +3845,19 @@
         <v>29028</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>18915</v>
+        <v>19993</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>40426</v>
+        <v>40557</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1122461032322276</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07314014380615955</v>
+        <v>0.07731017556178536</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1563220124631912</v>
+        <v>0.156829880179205</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>69</v>
@@ -3866,19 +3866,19 @@
         <v>74092</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>58720</v>
+        <v>58996</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>92950</v>
+        <v>89984</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1197270868937074</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.09488772506978746</v>
+        <v>0.09533382141601709</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1502003593487726</v>
+        <v>0.1454080922893661</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>71883</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>57659</v>
+        <v>56426</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>89315</v>
+        <v>89112</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.199546419127829</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1600597438105953</v>
+        <v>0.1566388485071801</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2479377957503128</v>
+        <v>0.2473748809859135</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>63</v>
@@ -3916,19 +3916,19 @@
         <v>68927</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>54652</v>
+        <v>55674</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>83842</v>
+        <v>85624</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2665289528458078</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2113328389221653</v>
+        <v>0.2152819898487305</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3242035349630962</v>
+        <v>0.3310942332968849</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>130</v>
@@ -3937,19 +3937,19 @@
         <v>140810</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>121618</v>
+        <v>119675</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>163505</v>
+        <v>163782</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2275378481834519</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1965260957139991</v>
+        <v>0.1933854183834527</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2642121747855358</v>
+        <v>0.2646598258447934</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>129746</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>111104</v>
+        <v>110470</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>149928</v>
+        <v>148684</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3601736723767024</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3084223380597358</v>
+        <v>0.3066648596760062</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4161977058892873</v>
+        <v>0.4127451609703313</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>67</v>
@@ -3987,19 +3987,19 @@
         <v>75934</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>61788</v>
+        <v>61421</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>92039</v>
+        <v>92010</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2936258014833563</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.238924559110511</v>
+        <v>0.2375078732370209</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3559001151443407</v>
+        <v>0.3557878104776371</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>188</v>
@@ -4008,19 +4008,19 @@
         <v>205680</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>182795</v>
+        <v>180912</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>230071</v>
+        <v>229756</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3323638852050675</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2953828658928297</v>
+        <v>0.2923406423308192</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3717769771024809</v>
+        <v>0.3712690033028338</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>68945</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>54076</v>
+        <v>55633</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>85506</v>
+        <v>85544</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1913893576091809</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1501156943017354</v>
+        <v>0.1544358288085446</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2373625910834391</v>
+        <v>0.2374693396414846</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>52</v>
@@ -4058,19 +4058,19 @@
         <v>55190</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>41911</v>
+        <v>43452</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>69945</v>
+        <v>69897</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2134118705933797</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1620640703181119</v>
+        <v>0.1680225517296519</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2704653392927019</v>
+        <v>0.2702834717067419</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>116</v>
@@ -4079,19 +4079,19 @@
         <v>124135</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>104456</v>
+        <v>104604</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>145088</v>
+        <v>145521</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2005923777938037</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1687922168056329</v>
+        <v>0.1690321970431479</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2344510151989032</v>
+        <v>0.2351511528924236</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>276495</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>244606</v>
+        <v>245949</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>308871</v>
+        <v>305941</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1961010208820606</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1734843918783042</v>
+        <v>0.1744368165508461</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.219063972770912</v>
+        <v>0.2169855510764916</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>190</v>
@@ -4204,19 +4204,19 @@
         <v>208064</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>182461</v>
+        <v>184101</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>236863</v>
+        <v>238121</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2204398076543127</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1933134663888933</v>
+        <v>0.1950518480030874</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2509516952175451</v>
+        <v>0.2522841503532542</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>449</v>
@@ -4225,19 +4225,19 @@
         <v>484559</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>443954</v>
+        <v>447365</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>529947</v>
+        <v>525799</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.2058606434059961</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1886099857857669</v>
+        <v>0.1900589975682599</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2251434956705248</v>
+        <v>0.2233812442609081</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>215585</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>188928</v>
+        <v>186583</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>246001</v>
+        <v>245443</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1529015018498053</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1339951427391859</v>
+        <v>0.1323321361888522</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1744738436266584</v>
+        <v>0.1740777497969824</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>146</v>
@@ -4275,19 +4275,19 @@
         <v>154218</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>129353</v>
+        <v>131381</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>177505</v>
+        <v>177962</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.163390845408196</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1370465076977694</v>
+        <v>0.139195724455018</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1880630535865901</v>
+        <v>0.18854746599566</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>353</v>
@@ -4296,19 +4296,19 @@
         <v>369803</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>333681</v>
+        <v>333523</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>407462</v>
+        <v>408252</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1571076290742929</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1417612692445028</v>
+        <v>0.1416942771213269</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1731065174269587</v>
+        <v>0.1734423663739009</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>408932</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>373390</v>
+        <v>374674</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>450019</v>
+        <v>447857</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2900307023689535</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2648232866992892</v>
+        <v>0.2657339201280804</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3191716454566498</v>
+        <v>0.3176382184433587</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>224</v>
@@ -4346,19 +4346,19 @@
         <v>241700</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>213387</v>
+        <v>213859</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>268880</v>
+        <v>270484</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2560769113828713</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2260789014358154</v>
+        <v>0.2265795885306295</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2848728373364358</v>
+        <v>0.2865725214359091</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>606</v>
@@ -4367,19 +4367,19 @@
         <v>650632</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>598873</v>
+        <v>605485</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>691688</v>
+        <v>696998</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.276415554400339</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2544261837603954</v>
+        <v>0.2572350152672445</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2938574438405032</v>
+        <v>0.2961136842509737</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>276768</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>245109</v>
+        <v>246936</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>311032</v>
+        <v>315077</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1962949002491045</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1738409405232672</v>
+        <v>0.1751371893146262</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2205963672221125</v>
+        <v>0.2234652089398518</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>154</v>
@@ -4417,19 +4417,19 @@
         <v>169742</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>145844</v>
+        <v>145331</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>199235</v>
+        <v>196995</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1798379055202459</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.154518661874893</v>
+        <v>0.1539748867195928</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2110859198669851</v>
+        <v>0.2087125695598117</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>410</v>
@@ -4438,19 +4438,19 @@
         <v>446510</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>409081</v>
+        <v>406878</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>492724</v>
+        <v>486054</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1896958015374477</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1737947147253486</v>
+        <v>0.1728584401366932</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2093293556938581</v>
+        <v>0.2064960291773962</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>232181</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>205078</v>
+        <v>204046</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>262645</v>
+        <v>262018</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1646718746500763</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1454498239288922</v>
+        <v>0.1447172968201867</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1862784917986161</v>
+        <v>0.1858337396429844</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>157</v>
@@ -4488,19 +4488,19 @@
         <v>170135</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>148173</v>
+        <v>147915</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>195796</v>
+        <v>195775</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1802545300343741</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1569861365378047</v>
+        <v>0.1567126381135409</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2074419111539395</v>
+        <v>0.207419589960396</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>376</v>
@@ -4509,19 +4509,19 @@
         <v>402316</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>367083</v>
+        <v>366015</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>439441</v>
+        <v>441290</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1709203715819242</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1559520374261303</v>
+        <v>0.1554984130301772</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1866926751750022</v>
+        <v>0.1874783266031372</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>36039</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25305</v>
+        <v>26177</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47227</v>
+        <v>47199</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2708668683548483</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1901887848328525</v>
+        <v>0.1967427380392856</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3549523079728228</v>
+        <v>0.3547460243189826</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -4878,19 +4878,19 @@
         <v>26419</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19307</v>
+        <v>18013</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37628</v>
+        <v>36385</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2640082758411935</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.192934438060152</v>
+        <v>0.1800018684625463</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3760174206526436</v>
+        <v>0.3636003482337331</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -4899,19 +4899,19 @@
         <v>62458</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49106</v>
+        <v>48963</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76741</v>
+        <v>75945</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2679227371721959</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2106471106628595</v>
+        <v>0.2100340413483152</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.329190472570473</v>
+        <v>0.325776520202183</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>17874</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10790</v>
+        <v>11569</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27210</v>
+        <v>27822</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1343421548088732</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08109637758921423</v>
+        <v>0.08695467436922938</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2045111416326636</v>
+        <v>0.2091094518429841</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -4949,19 +4949,19 @@
         <v>10648</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5566</v>
+        <v>5157</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18012</v>
+        <v>18145</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1064011554075035</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05561729732178789</v>
+        <v>0.0515297232760258</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1799984558212586</v>
+        <v>0.1813252463876485</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -4970,19 +4970,19 @@
         <v>28522</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19668</v>
+        <v>19280</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40028</v>
+        <v>39034</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.122348153496174</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08436929046907618</v>
+        <v>0.08270572552891776</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1717053604526197</v>
+        <v>0.1674395404911286</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>49419</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37913</v>
+        <v>37910</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>61907</v>
+        <v>62431</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3714257916329237</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2849518073401045</v>
+        <v>0.2849306274158539</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4652909255709368</v>
+        <v>0.469225886447133</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -5020,19 +5020,19 @@
         <v>25482</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17540</v>
+        <v>17525</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35927</v>
+        <v>35560</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2546400822167971</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1752747210903519</v>
+        <v>0.1751230203089834</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3590234213200644</v>
+        <v>0.3553526221446248</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>67</v>
@@ -5041,19 +5041,19 @@
         <v>74900</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>58590</v>
+        <v>60725</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>89453</v>
+        <v>91817</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3212941577596964</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2513292766336556</v>
+        <v>0.2604880081622852</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3837226818611937</v>
+        <v>0.3938606468252979</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>19937</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11448</v>
+        <v>12301</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30295</v>
+        <v>28649</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1498442502245247</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08603922597263501</v>
+        <v>0.09245198879575438</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2276912615762573</v>
+        <v>0.215326327431149</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -5091,19 +5091,19 @@
         <v>16277</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9972</v>
+        <v>10148</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25322</v>
+        <v>24808</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.162657685888498</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09965054292313794</v>
+        <v>0.1014043846371902</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2530456416211054</v>
+        <v>0.2479087417645276</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -5112,19 +5112,19 @@
         <v>36214</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25658</v>
+        <v>25194</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48802</v>
+        <v>49474</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1553445675884895</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1100616943594926</v>
+        <v>0.1080733448451556</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2093426755152643</v>
+        <v>0.2122267610533889</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>9782</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4624</v>
+        <v>4338</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17777</v>
+        <v>18202</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07352093497883011</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03475349675994336</v>
+        <v>0.03260081307137621</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1336108076090086</v>
+        <v>0.1368021809183239</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -5162,19 +5162,19 @@
         <v>21244</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13978</v>
+        <v>13826</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31101</v>
+        <v>31365</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.212292800646008</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1396839752638232</v>
+        <v>0.1381622242812668</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3107923178291992</v>
+        <v>0.3134348668959566</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>28</v>
@@ -5183,19 +5183,19 @@
         <v>31026</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20980</v>
+        <v>21120</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43198</v>
+        <v>43502</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1330903839834442</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08999832202283388</v>
+        <v>0.09059567417981683</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1853036971743239</v>
+        <v>0.1866088813126147</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>62106</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49409</v>
+        <v>49146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74812</v>
+        <v>75004</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3646923062904436</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2901347916962873</v>
+        <v>0.2885914511595394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4393049408621923</v>
+        <v>0.4404325906697745</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -5308,19 +5308,19 @@
         <v>27787</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20380</v>
+        <v>19495</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41041</v>
+        <v>38491</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2444321729804959</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1792793414922823</v>
+        <v>0.1714902655249159</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3610203987979412</v>
+        <v>0.338594315969344</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -5329,19 +5329,19 @@
         <v>89893</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74506</v>
+        <v>72565</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106186</v>
+        <v>106343</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3165503927587489</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2623653410382898</v>
+        <v>0.2555326592879348</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3739259350656012</v>
+        <v>0.3744779155605825</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>16118</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9026</v>
+        <v>9121</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24781</v>
+        <v>25855</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09464693570529371</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05300051881452094</v>
+        <v>0.05355668136975018</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1455140154904024</v>
+        <v>0.1518227884122222</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -5379,19 +5379,19 @@
         <v>21220</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13053</v>
+        <v>14224</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30826</v>
+        <v>31266</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1866602142243486</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1148261779538066</v>
+        <v>0.1251233199475218</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2711669175689684</v>
+        <v>0.2750349783260464</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>36</v>
@@ -5400,19 +5400,19 @@
         <v>37338</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>27470</v>
+        <v>26817</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49666</v>
+        <v>49605</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1314812146663472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09673298890263234</v>
+        <v>0.09443401954684555</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1748940334369412</v>
+        <v>0.1746813322995581</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>45448</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33490</v>
+        <v>33864</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>58364</v>
+        <v>58053</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.266875239929824</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1966546357712733</v>
+        <v>0.1988554148710207</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3427167653750179</v>
+        <v>0.3408932372187682</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -5450,19 +5450,19 @@
         <v>28290</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20265</v>
+        <v>20001</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38658</v>
+        <v>39269</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.248853637379215</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1782624276664041</v>
+        <v>0.1759406881541734</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.340059543000858</v>
+        <v>0.3454377016385242</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>69</v>
@@ -5471,19 +5471,19 @@
         <v>73738</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>59447</v>
+        <v>59664</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>89882</v>
+        <v>88952</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2596609253617707</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2093356515557395</v>
+        <v>0.2101025794996381</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3165102713927215</v>
+        <v>0.3132378893412727</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>28160</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19064</v>
+        <v>18789</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39079</v>
+        <v>39273</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1653600447261206</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1119448815587247</v>
+        <v>0.1103303715583305</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2294764025490078</v>
+        <v>0.2306144582551955</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -5521,19 +5521,19 @@
         <v>11367</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6080</v>
+        <v>5404</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19301</v>
+        <v>18671</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09999442067186105</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05348514498683848</v>
+        <v>0.04753936532637155</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1697843954073808</v>
+        <v>0.1642391740163862</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -5542,19 +5542,19 @@
         <v>39528</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28957</v>
+        <v>28280</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53187</v>
+        <v>51693</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1391932167461857</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1019692488032778</v>
+        <v>0.09958642607774484</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1872929052718696</v>
+        <v>0.1820306783356949</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>18465</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11755</v>
+        <v>10766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29125</v>
+        <v>28964</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1084254733483181</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06902685566117384</v>
+        <v>0.06321760421062719</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1710250854251196</v>
+        <v>0.1700799737529718</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -5592,19 +5592,19 @@
         <v>25016</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17113</v>
+        <v>16958</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35320</v>
+        <v>35658</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2200595547440794</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1505335731466357</v>
+        <v>0.149175992224038</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3106961612285174</v>
+        <v>0.313668661861628</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>39</v>
@@ -5613,19 +5613,19 @@
         <v>43481</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31407</v>
+        <v>31238</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>57129</v>
+        <v>57597</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1531142504669476</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1105960534760263</v>
+        <v>0.1100009928497381</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2011742028386581</v>
+        <v>0.2028237813175445</v>
       </c>
     </row>
     <row r="15">
@@ -5717,19 +5717,19 @@
         <v>47829</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38076</v>
+        <v>37566</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59477</v>
+        <v>59345</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3808375018411538</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3031792620841728</v>
+        <v>0.2991157845601868</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4735832525409448</v>
+        <v>0.4725361669280109</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -5738,19 +5738,19 @@
         <v>32268</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24512</v>
+        <v>24320</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42112</v>
+        <v>41661</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.382621102423217</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.290661576968422</v>
+        <v>0.2883756141313389</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4993495041402823</v>
+        <v>0.4940016054113454</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -5759,19 +5759,19 @@
         <v>80097</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67434</v>
+        <v>67806</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94667</v>
+        <v>93729</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3815540384900112</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3212347097852892</v>
+        <v>0.323005286021496</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4509607555846522</v>
+        <v>0.4464961796145531</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>23957</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16562</v>
+        <v>15880</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33230</v>
+        <v>32943</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1907533586086526</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1318768098039473</v>
+        <v>0.1264446047998407</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2645900634220201</v>
+        <v>0.2623046451486046</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -5809,19 +5809,19 @@
         <v>15150</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8913</v>
+        <v>9224</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23457</v>
+        <v>22969</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1796435619116104</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1056898437879647</v>
+        <v>0.1093743080870567</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2781466237852049</v>
+        <v>0.2723651597158863</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -5830,19 +5830,19 @@
         <v>39106</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29003</v>
+        <v>29446</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>52700</v>
+        <v>50993</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1862901527906899</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1381599994149229</v>
+        <v>0.1402725319116391</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.251044147367947</v>
+        <v>0.242913310725429</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>33038</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24935</v>
+        <v>23615</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43647</v>
+        <v>43364</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2630659943945024</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1985453726175125</v>
+        <v>0.188036296014101</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3475391318864052</v>
+        <v>0.3452871754318693</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -5880,19 +5880,19 @@
         <v>19918</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13711</v>
+        <v>13569</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28983</v>
+        <v>28860</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.236178018941158</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.162584195662897</v>
+        <v>0.1608953589701112</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3436694032940991</v>
+        <v>0.3422131574216011</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>55</v>
@@ -5901,19 +5901,19 @@
         <v>52956</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>42327</v>
+        <v>41299</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>66236</v>
+        <v>65354</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2522641254000361</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2016336817368545</v>
+        <v>0.1967371590645871</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3155290454985593</v>
+        <v>0.3113257501008701</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>18170</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12275</v>
+        <v>11131</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26779</v>
+        <v>27220</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1446774466264761</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09773934019194247</v>
+        <v>0.08862960529633206</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2132285353017776</v>
+        <v>0.2167356123508323</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -5951,19 +5951,19 @@
         <v>15981</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9949</v>
+        <v>10120</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23930</v>
+        <v>24170</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1894989357384585</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1179691220627753</v>
+        <v>0.1200027092107722</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2837584958594847</v>
+        <v>0.2866065194672097</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -5972,19 +5972,19 @@
         <v>34151</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24601</v>
+        <v>25721</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44413</v>
+        <v>46181</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1626838545229959</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1171932300039974</v>
+        <v>0.122524406099374</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2115682538143255</v>
+        <v>0.2199929902351398</v>
       </c>
     </row>
     <row r="20">
@@ -6001,19 +6001,19 @@
         <v>2595</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6852</v>
+        <v>6818</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02066569852921515</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006742393790301515</v>
+        <v>0.006692510644009485</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0545616760061336</v>
+        <v>0.05428479356446343</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4582</v>
+        <v>5210</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01205838098555614</v>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05432947875852419</v>
+        <v>0.06177864166840386</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -6043,19 +6043,19 @@
         <v>3612</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8354</v>
+        <v>8317</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01720782879626686</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004144171638357481</v>
+        <v>0.004155858717778825</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03979558121497463</v>
+        <v>0.03961881744237284</v>
       </c>
     </row>
     <row r="21">
@@ -6147,19 +6147,19 @@
         <v>41450</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31656</v>
+        <v>31600</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53000</v>
+        <v>52156</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3694991869696678</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2821901086892022</v>
+        <v>0.2816941102031071</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4724546951444322</v>
+        <v>0.4649330724926252</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -6168,19 +6168,19 @@
         <v>26020</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18246</v>
+        <v>17270</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35481</v>
+        <v>34486</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3178645966585705</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2228952707511169</v>
+        <v>0.2109670747918796</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.433444542635941</v>
+        <v>0.4212854056990023</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -6189,19 +6189,19 @@
         <v>67471</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54918</v>
+        <v>55268</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>83084</v>
+        <v>82354</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3477162122105166</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2830265184628158</v>
+        <v>0.2848313087115573</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4281816202758604</v>
+        <v>0.424419555310805</v>
       </c>
     </row>
     <row r="23">
@@ -6218,19 +6218,19 @@
         <v>19652</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12304</v>
+        <v>11845</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29426</v>
+        <v>28699</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1751804211586742</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1096785975653982</v>
+        <v>0.1055874942882889</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2623083256165842</v>
+        <v>0.2558300034229344</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -6239,19 +6239,19 @@
         <v>11605</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6188</v>
+        <v>5918</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19093</v>
+        <v>19051</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1417665273790222</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07559206107221017</v>
+        <v>0.07230008130037727</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.233241053480149</v>
+        <v>0.232733939969831</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>29</v>
@@ -6260,19 +6260,19 @@
         <v>31257</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>21522</v>
+        <v>21358</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>42954</v>
+        <v>43386</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1610841728797237</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1109147963628973</v>
+        <v>0.1100712555215915</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2213666003418003</v>
+        <v>0.2235959441452381</v>
       </c>
     </row>
     <row r="24">
@@ -6289,19 +6289,19 @@
         <v>26538</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18061</v>
+        <v>17569</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36859</v>
+        <v>35518</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2365689131929948</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1609961009062685</v>
+        <v>0.1566116037280663</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.328574232938566</v>
+        <v>0.316619835705458</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -6310,19 +6310,19 @@
         <v>23002</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15257</v>
+        <v>15622</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32187</v>
+        <v>32500</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2809938841362178</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1863805755187143</v>
+        <v>0.1908455797907063</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3932052157632108</v>
+        <v>0.3970254978691107</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>45</v>
@@ -6331,19 +6331,19 @@
         <v>49540</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>36963</v>
+        <v>37030</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>62477</v>
+        <v>62149</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2553103811682771</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1904909390432327</v>
+        <v>0.1908365060955726</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3219806582391969</v>
+        <v>0.3202930535501804</v>
       </c>
     </row>
     <row r="25">
@@ -6360,19 +6360,19 @@
         <v>11964</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6602</v>
+        <v>5893</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19840</v>
+        <v>20790</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.106645787856336</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05885470818753347</v>
+        <v>0.0525323985208575</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1768542036921711</v>
+        <v>0.1853289738977537</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -6381,19 +6381,19 @@
         <v>6899</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2944</v>
+        <v>2868</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13811</v>
+        <v>13104</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08428475020055493</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03596054607324255</v>
+        <v>0.03503938123879075</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.168714232679168</v>
+        <v>0.1600831010899194</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -6402,19 +6402,19 @@
         <v>18863</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11526</v>
+        <v>11295</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>28629</v>
+        <v>28333</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09721238447481205</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05939876457485084</v>
+        <v>0.05821091586522733</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1475443964020577</v>
+        <v>0.1460168248764948</v>
       </c>
     </row>
     <row r="26">
@@ -6431,19 +6431,19 @@
         <v>12576</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6407</v>
+        <v>6835</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21302</v>
+        <v>22088</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1121056908223272</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05711170958788904</v>
+        <v>0.06092867736399071</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1898953669660051</v>
+        <v>0.1968973879161775</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -6452,19 +6452,19 @@
         <v>14333</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8689</v>
+        <v>8381</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22586</v>
+        <v>21680</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1750902416256347</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1061443013477302</v>
+        <v>0.1023840020174223</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.275908321529339</v>
+        <v>0.2648444636737526</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>25</v>
@@ -6473,19 +6473,19 @@
         <v>26909</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18171</v>
+        <v>17893</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38038</v>
+        <v>37831</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1386768492666705</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09364851086491201</v>
+        <v>0.09221229346712471</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1960327600133207</v>
+        <v>0.1949644269768555</v>
       </c>
     </row>
     <row r="27">
@@ -6577,19 +6577,19 @@
         <v>16320</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10497</v>
+        <v>10575</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24544</v>
+        <v>24338</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2016547603896659</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1297019704215606</v>
+        <v>0.1306724614592513</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3032778444631332</v>
+        <v>0.3007318174066496</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -6598,19 +6598,19 @@
         <v>6453</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2752</v>
+        <v>2767</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12697</v>
+        <v>12634</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1164494844372925</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04966343612742283</v>
+        <v>0.04993742586667022</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2291178421180319</v>
+        <v>0.2279710637270103</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -6619,19 +6619,19 @@
         <v>22773</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15050</v>
+        <v>15368</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>32495</v>
+        <v>31640</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1670233084799317</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1103827051675318</v>
+        <v>0.1127098206882307</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.238321403962036</v>
+        <v>0.2320541109305998</v>
       </c>
     </row>
     <row r="29">
@@ -6648,19 +6648,19 @@
         <v>19082</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12137</v>
+        <v>12931</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27878</v>
+        <v>27478</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2357832511826657</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1499741617746639</v>
+        <v>0.1597814964179829</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3444766486882615</v>
+        <v>0.3395318469832967</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -6669,19 +6669,19 @@
         <v>14642</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9165</v>
+        <v>9191</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>21234</v>
+        <v>21365</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2642129561062396</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1653725397487343</v>
+        <v>0.1658442077037851</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3831546309425644</v>
+        <v>0.3855171736898408</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>35</v>
@@ -6690,19 +6690,19 @@
         <v>33724</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>25052</v>
+        <v>25129</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>45166</v>
+        <v>45113</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2473384271722255</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1837359239331272</v>
+        <v>0.184303220699271</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3312582726707998</v>
+        <v>0.3308641606851726</v>
       </c>
     </row>
     <row r="30">
@@ -6719,19 +6719,19 @@
         <v>14603</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8081</v>
+        <v>8559</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22235</v>
+        <v>22343</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1804391052547182</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09985330085131376</v>
+        <v>0.1057613348294063</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2747467893402825</v>
+        <v>0.2760736344071591</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -6740,19 +6740,19 @@
         <v>12562</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7238</v>
+        <v>6621</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19653</v>
+        <v>19908</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2266808226051174</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1305984210603166</v>
+        <v>0.1194809767700014</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3546300921758377</v>
+        <v>0.3592262766884595</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>26</v>
@@ -6761,19 +6761,19 @@
         <v>27165</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18224</v>
+        <v>18446</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>37118</v>
+        <v>37967</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1992339250912152</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1336546743404696</v>
+        <v>0.1352828837329613</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2722312441373009</v>
+        <v>0.2784532338137345</v>
       </c>
     </row>
     <row r="31">
@@ -6790,19 +6790,19 @@
         <v>16387</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>9551</v>
+        <v>10606</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>24506</v>
+        <v>23951</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2024822411156497</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1180176862312185</v>
+        <v>0.1310494885040948</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3028068538397415</v>
+        <v>0.2959505740527877</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -6811,19 +6811,19 @@
         <v>11649</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6444</v>
+        <v>6852</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17628</v>
+        <v>17603</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.210208588889812</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1162720424530446</v>
+        <v>0.1236378784992621</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3180936808076678</v>
+        <v>0.317642836945026</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>29</v>
@@ -6832,19 +6832,19 @@
         <v>28036</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>19079</v>
+        <v>19712</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>37585</v>
+        <v>37049</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2056225940854393</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1399283867742876</v>
+        <v>0.1445678605761814</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2756570508784994</v>
+        <v>0.2717246169934099</v>
       </c>
     </row>
     <row r="32">
@@ -6861,19 +6861,19 @@
         <v>14538</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8326</v>
+        <v>7996</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>22954</v>
+        <v>22756</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1796406420573006</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1028821993342701</v>
+        <v>0.09880532433134225</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2836291873439454</v>
+        <v>0.2811827229736728</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -6882,19 +6882,19 @@
         <v>10111</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4816</v>
+        <v>5515</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16207</v>
+        <v>16421</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1824481479615386</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08691055803716302</v>
+        <v>0.09950996981698165</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2924416815747551</v>
+        <v>0.2963090012886026</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>24</v>
@@ -6903,19 +6903,19 @@
         <v>24649</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>16300</v>
+        <v>16883</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>33729</v>
+        <v>35134</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1807817451711883</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1195455197094758</v>
+        <v>0.1238218141940933</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2473737581988115</v>
+        <v>0.2576766400644204</v>
       </c>
     </row>
     <row r="33">
@@ -7007,19 +7007,19 @@
         <v>15315</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>9196</v>
+        <v>8883</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>23594</v>
+        <v>24439</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1424653848263607</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0855415161322689</v>
+        <v>0.08263013758015184</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2194744135317185</v>
+        <v>0.2273328162321624</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>13</v>
@@ -7028,19 +7028,19 @@
         <v>12864</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7537</v>
+        <v>7722</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20067</v>
+        <v>19884</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1702252808656889</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09973399100927845</v>
+        <v>0.102190102002538</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2655473094938149</v>
+        <v>0.2631214521548188</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>27</v>
@@ -7049,19 +7049,19 @@
         <v>28179</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>19176</v>
+        <v>18775</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>38781</v>
+        <v>38831</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1539241845654367</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1047488559105829</v>
+        <v>0.1025546836355474</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.211838302913132</v>
+        <v>0.2121090620317474</v>
       </c>
     </row>
     <row r="35">
@@ -7078,19 +7078,19 @@
         <v>32527</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>23680</v>
+        <v>23255</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>42894</v>
+        <v>41362</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.302573204819001</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2202760128068592</v>
+        <v>0.2163226265948916</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3990036693086229</v>
+        <v>0.3847593993531204</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>19</v>
@@ -7099,19 +7099,19 @@
         <v>18788</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12686</v>
+        <v>11846</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>27160</v>
+        <v>26922</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2486201398363319</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1678715488666116</v>
+        <v>0.1567578834996751</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3594050034276513</v>
+        <v>0.3562584401107328</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>51</v>
@@ -7120,19 +7120,19 @@
         <v>51315</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>39649</v>
+        <v>40485</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>64149</v>
+        <v>63452</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2803023228938711</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2165788287770871</v>
+        <v>0.2211417528400316</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3504077098853646</v>
+        <v>0.3465996132786124</v>
       </c>
     </row>
     <row r="36">
@@ -7149,19 +7149,19 @@
         <v>34686</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>24596</v>
+        <v>25624</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>44697</v>
+        <v>45914</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3226539399392212</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2288002431099502</v>
+        <v>0.2383592500119887</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4157754846120561</v>
+        <v>0.4271022423243267</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>23</v>
@@ -7170,19 +7170,19 @@
         <v>22536</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>15770</v>
+        <v>15468</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>31032</v>
+        <v>31355</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2982227238134311</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2086801678544133</v>
+        <v>0.2046861925907409</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4106551299182874</v>
+        <v>0.4149281860464178</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>56</v>
@@ -7191,19 +7191,19 @@
         <v>57222</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>45481</v>
+        <v>45834</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>69697</v>
+        <v>70591</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.312569161070781</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2484343862483708</v>
+        <v>0.2503598989815868</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3807081261184543</v>
+        <v>0.3855950289280927</v>
       </c>
     </row>
     <row r="37">
@@ -7220,19 +7220,19 @@
         <v>20984</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>13735</v>
+        <v>12977</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>31579</v>
+        <v>30248</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1951991836390726</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1277667495623465</v>
+        <v>0.1207102550653947</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2937506055665315</v>
+        <v>0.2813728689433884</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>14</v>
@@ -7241,19 +7241,19 @@
         <v>13322</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7646</v>
+        <v>7566</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>20847</v>
+        <v>21281</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1762893946832678</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1011771054605257</v>
+        <v>0.1001223775786304</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2758770135700516</v>
+        <v>0.2816196514897168</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>34</v>
@@ -7262,19 +7262,19 @@
         <v>34306</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>24954</v>
+        <v>25265</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>46244</v>
+        <v>46226</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1873935533713736</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1363056336228414</v>
+        <v>0.1380054356785643</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2526029887205745</v>
+        <v>0.2525054869175212</v>
       </c>
     </row>
     <row r="38">
@@ -7291,19 +7291,19 @@
         <v>3989</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>985</v>
+        <v>1089</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>10165</v>
+        <v>9277</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.03710828677634449</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.00916168881046721</v>
+        <v>0.01013190590733948</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09455843102275006</v>
+        <v>0.08629447389244237</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>8</v>
@@ -7312,19 +7312,19 @@
         <v>8059</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3785</v>
+        <v>3780</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>14756</v>
+        <v>14979</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1066424608012802</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.05008712758029944</v>
+        <v>0.05002633471697636</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1952702012598636</v>
+        <v>0.1982241159283316</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>12</v>
@@ -7333,19 +7333,19 @@
         <v>12048</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6593</v>
+        <v>6669</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>20645</v>
+        <v>19741</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.06581077809853757</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.03601081382014298</v>
+        <v>0.03642971516565812</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1127712513906281</v>
+        <v>0.1078336557642199</v>
       </c>
     </row>
     <row r="39">
@@ -7437,19 +7437,19 @@
         <v>101665</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>84228</v>
+        <v>82915</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>121203</v>
+        <v>119872</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2832893403179737</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2347010374982164</v>
+        <v>0.2310417170078921</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.337731646813995</v>
+        <v>0.3340206294690025</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>63</v>
@@ -7458,19 +7458,19 @@
         <v>65808</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>53269</v>
+        <v>52846</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>81571</v>
+        <v>81557</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2318451468409212</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1876681192131706</v>
+        <v>0.1861768527077086</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2873791019560988</v>
+        <v>0.2873277177079132</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>154</v>
@@ -7479,19 +7479,19 @@
         <v>167474</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>145704</v>
+        <v>146363</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>190903</v>
+        <v>192670</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2605699496960957</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2266989960497421</v>
+        <v>0.2277233213985067</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2970228844401104</v>
+        <v>0.2997730380549836</v>
       </c>
     </row>
     <row r="41">
@@ -7508,19 +7508,19 @@
         <v>89123</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>72314</v>
+        <v>71341</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>107946</v>
+        <v>108376</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2483386163138926</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2015021734937135</v>
+        <v>0.1987918316000589</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3007896134827466</v>
+        <v>0.3019889243907521</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>69</v>
@@ -7529,19 +7529,19 @@
         <v>70510</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>56778</v>
+        <v>56824</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>87330</v>
+        <v>85636</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2484088598773976</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2000309896372307</v>
+        <v>0.2001937595646953</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3076661700338059</v>
+        <v>0.3016990587676066</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>144</v>
@@ -7550,19 +7550,19 @@
         <v>159632</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>136529</v>
+        <v>138854</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>183141</v>
+        <v>182643</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2483696381037211</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2124229564238675</v>
+        <v>0.2160410856949543</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2849459911381126</v>
+        <v>0.2841718768730511</v>
       </c>
     </row>
     <row r="42">
@@ -7579,19 +7579,19 @@
         <v>102936</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>85809</v>
+        <v>85601</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>119877</v>
+        <v>122599</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2868305983434682</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2391059701789786</v>
+        <v>0.2385260151555947</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3340367767400919</v>
+        <v>0.3416189525864646</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>90</v>
@@ -7600,19 +7600,19 @@
         <v>93591</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>77690</v>
+        <v>77787</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>109243</v>
+        <v>110968</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3297254551832609</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2737034301040884</v>
+        <v>0.2740462954202058</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3848664504801661</v>
+        <v>0.390943152021944</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>180</v>
@@ -7621,19 +7621,19 @@
         <v>196528</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>173243</v>
+        <v>173427</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>220706</v>
+        <v>221562</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3057743302273687</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.269545692366538</v>
+        <v>0.2698317863819613</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3433928515484492</v>
+        <v>0.3447256517409487</v>
       </c>
     </row>
     <row r="43">
@@ -7650,19 +7650,19 @@
         <v>42822</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>31963</v>
+        <v>31237</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>57537</v>
+        <v>57720</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1193234196787674</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.08906468828906491</v>
+        <v>0.08704270486681644</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1603259984138885</v>
+        <v>0.1608359180696815</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>35</v>
@@ -7671,19 +7671,19 @@
         <v>35167</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>24353</v>
+        <v>24607</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>46197</v>
+        <v>47013</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.123893869652865</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08579656441003954</v>
+        <v>0.08669266361972154</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1627540249195127</v>
+        <v>0.165628555496412</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>73</v>
@@ -7692,19 +7692,19 @@
         <v>77989</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>62526</v>
+        <v>62873</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>96830</v>
+        <v>97559</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.121341875626096</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.09728291241305755</v>
+        <v>0.09782252510419924</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1506564914428037</v>
+        <v>0.1517905714190006</v>
       </c>
     </row>
     <row r="44">
@@ -7721,19 +7721,19 @@
         <v>22328</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>13921</v>
+        <v>13612</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>34085</v>
+        <v>33684</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.06221802534589813</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03879029566822461</v>
+        <v>0.03793008134639124</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.09497799064856823</v>
+        <v>0.09386059839702227</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>16</v>
@@ -7742,19 +7742,19 @@
         <v>18770</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>10999</v>
+        <v>11442</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>29884</v>
+        <v>29260</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.06612666844555526</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.03874858780907435</v>
+        <v>0.04030887039282426</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1052830334055044</v>
+        <v>0.1030858072184461</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>34</v>
@@ -7763,19 +7763,19 @@
         <v>41098</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>28727</v>
+        <v>28487</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>56564</v>
+        <v>55835</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.06394420634671856</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.04469606338947807</v>
+        <v>0.04432312997431333</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.08800711114624928</v>
+        <v>0.08687243909107284</v>
       </c>
     </row>
     <row r="45">
@@ -7867,19 +7867,19 @@
         <v>36463</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>25225</v>
+        <v>26163</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>48945</v>
+        <v>48971</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1111981421936501</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.07692649046551139</v>
+        <v>0.07978741034291217</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1492609725797954</v>
+        <v>0.1493424897461573</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>32</v>
@@ -7888,19 +7888,19 @@
         <v>32256</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>22956</v>
+        <v>22234</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>44313</v>
+        <v>43220</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1359830434271063</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.09677423277915481</v>
+        <v>0.09373387614509211</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.186810600819518</v>
+        <v>0.1822025775014812</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>67</v>
@@ -7909,19 +7909,19 @@
         <v>68719</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>54600</v>
+        <v>53736</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>85942</v>
+        <v>84401</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1216015079924411</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.09661628253294564</v>
+        <v>0.09508784039651473</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1520784160539399</v>
+        <v>0.1493511623037902</v>
       </c>
     </row>
     <row r="47">
@@ -7938,19 +7938,19 @@
         <v>53179</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>40517</v>
+        <v>40521</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>66547</v>
+        <v>68979</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1621743482479913</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1235591192698119</v>
+        <v>0.1235726018966348</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2029411628205944</v>
+        <v>0.2103573580251644</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>41</v>
@@ -7959,19 +7959,19 @@
         <v>42536</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>31584</v>
+        <v>31055</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>54607</v>
+        <v>54767</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1793186355696122</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1331488535952277</v>
+        <v>0.13092113986528</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2302090867983701</v>
+        <v>0.2308819924171616</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>92</v>
@@ -7980,19 +7980,19 @@
         <v>95715</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>77830</v>
+        <v>80300</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>115078</v>
+        <v>115033</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1693705961041513</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1377224062725504</v>
+        <v>0.1420930945853157</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2036342853176657</v>
+        <v>0.2035553575477804</v>
       </c>
     </row>
     <row r="48">
@@ -8009,19 +8009,19 @@
         <v>97990</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>81663</v>
+        <v>80437</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>114811</v>
+        <v>114732</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2988285704992706</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2490371657495073</v>
+        <v>0.2453013187192103</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.350126890532319</v>
+        <v>0.3498839896835421</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>56</v>
@@ -8030,19 +8030,19 @@
         <v>57867</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>44804</v>
+        <v>45003</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>70650</v>
+        <v>73112</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2439532553469964</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1888801980747085</v>
+        <v>0.1897196943001002</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2978391825679039</v>
+        <v>0.3082213701067755</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>150</v>
@@ -8051,19 +8051,19 @@
         <v>155857</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>136002</v>
+        <v>135223</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>177382</v>
+        <v>178876</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2757948706077242</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2406608039175027</v>
+        <v>0.2392830523796246</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3138837954155041</v>
+        <v>0.316528400222537</v>
       </c>
     </row>
     <row r="49">
@@ -8080,19 +8080,19 @@
         <v>79525</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>65055</v>
+        <v>62456</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>94875</v>
+        <v>96984</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2425197725922594</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1983902213222381</v>
+        <v>0.1904647890428762</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2893294037729806</v>
+        <v>0.2957618781548127</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>66</v>
@@ -8101,19 +8101,19 @@
         <v>69630</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>54771</v>
+        <v>56673</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>84505</v>
+        <v>84883</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2935401763330606</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2308977441097763</v>
+        <v>0.2389163901287266</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3562510009831538</v>
+        <v>0.3578449167617779</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>144</v>
@@ -8122,19 +8122,19 @@
         <v>149155</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>128299</v>
+        <v>129610</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>169993</v>
+        <v>169419</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2639353884269949</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2270304210959572</v>
+        <v>0.2293503772105337</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3008093656037391</v>
+        <v>0.2997926253926193</v>
       </c>
     </row>
     <row r="50">
@@ -8151,19 +8151,19 @@
         <v>60755</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>47879</v>
+        <v>47857</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>76548</v>
+        <v>77378</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1852791664668287</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1460102772897323</v>
+        <v>0.1459447125956755</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.233440755386914</v>
+        <v>0.2359709994586503</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>33</v>
@@ -8172,19 +8172,19 @@
         <v>34918</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>24987</v>
+        <v>24642</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>48563</v>
+        <v>46953</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1472048893232244</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1053370247818194</v>
+        <v>0.1038820657506079</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2047287647687883</v>
+        <v>0.1979402006943676</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>89</v>
@@ -8193,19 +8193,19 @@
         <v>95673</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>78680</v>
+        <v>78053</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>114787</v>
+        <v>116109</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1692976368686884</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1392281314234056</v>
+        <v>0.1381176093126072</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2031197536618629</v>
+        <v>0.2054586783645318</v>
       </c>
     </row>
     <row r="51">
@@ -8297,19 +8297,19 @@
         <v>357189</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>322233</v>
+        <v>326669</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>390320</v>
+        <v>391788</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2521917856681907</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2275115083566052</v>
+        <v>0.2306436437846711</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2755843801384753</v>
+        <v>0.2766205311437702</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>227</v>
@@ -8318,19 +8318,19 @@
         <v>229876</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>203020</v>
+        <v>202599</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>258199</v>
+        <v>255653</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2227516307356379</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1967286263702413</v>
+        <v>0.1963201634827246</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2501974174830253</v>
+        <v>0.2477305624134203</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>564</v>
@@ -8339,19 +8339,19 @@
         <v>587064</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>547542</v>
+        <v>539193</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>630699</v>
+        <v>632414</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.2397825748073449</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2236400169943355</v>
+        <v>0.2202300521115974</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2576048182955249</v>
+        <v>0.2583056584720533</v>
       </c>
     </row>
     <row r="53">
@@ -8368,19 +8368,19 @@
         <v>271512</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>238461</v>
+        <v>240354</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>303970</v>
+        <v>299573</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1916998417044742</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1683648667115078</v>
+        <v>0.1697013546258677</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2146167217130201</v>
+        <v>0.2115125195104467</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>203</v>
@@ -8389,19 +8389,19 @@
         <v>205098</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>182169</v>
+        <v>180349</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>232977</v>
+        <v>232086</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1987413809722018</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1765234960304075</v>
+        <v>0.1747597664135346</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2257571769721049</v>
+        <v>0.2248931676999178</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>454</v>
@@ -8410,19 +8410,19 @@
         <v>476609</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>438287</v>
+        <v>438596</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>516560</v>
+        <v>518658</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1946678948875618</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.179015538559769</v>
+        <v>0.1791419602347659</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.210985543106818</v>
+        <v>0.2118427046412655</v>
       </c>
     </row>
     <row r="54">
@@ -8439,19 +8439,19 @@
         <v>404658</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>369607</v>
+        <v>369481</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>439581</v>
+        <v>440828</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2857074919349905</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2609599996603074</v>
+        <v>0.2608705096464542</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3103646514609947</v>
+        <v>0.3112453928019345</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>274</v>
@@ -8460,19 +8460,19 @@
         <v>283248</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>253154</v>
+        <v>256018</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>314857</v>
+        <v>315403</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2744701302111515</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2453083367061004</v>
+        <v>0.2480841633494416</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3050988944425657</v>
+        <v>0.3056282430447622</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>648</v>
@@ -8481,19 +8481,19 @@
         <v>687906</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>638376</v>
+        <v>642671</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>733359</v>
+        <v>733287</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2809708731410274</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2607408076367366</v>
+        <v>0.262494728619089</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2995360347769122</v>
+        <v>0.299506496207687</v>
       </c>
     </row>
     <row r="55">
@@ -8510,19 +8510,19 @@
         <v>237949</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>208553</v>
+        <v>208412</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>266276</v>
+        <v>265474</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1680033765619127</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1472478819131961</v>
+        <v>0.1471484184092809</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1880034383414646</v>
+        <v>0.187436811765973</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>178</v>
@@ -8531,19 +8531,19 @@
         <v>180293</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>154694</v>
+        <v>158580</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>204434</v>
+        <v>204489</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1747054507414608</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1498996378767116</v>
+        <v>0.1536654362906821</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.198098616574451</v>
+        <v>0.1981514662016123</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>404</v>
@@ -8552,19 +8552,19 @@
         <v>418242</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>380840</v>
+        <v>382918</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>454561</v>
+        <v>454167</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1708283430707364</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1555518033693204</v>
+        <v>0.1564005071777796</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1856623864572654</v>
+        <v>0.1855014926503068</v>
       </c>
     </row>
     <row r="56">
@@ -8581,19 +8581,19 @@
         <v>145029</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>121642</v>
+        <v>122676</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>169284</v>
+        <v>172111</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1023975041304319</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.08588499092513473</v>
+        <v>0.08661503810342275</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1195222941607013</v>
+        <v>0.1215183508517203</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>126</v>
@@ -8602,19 +8602,19 @@
         <v>133468</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>113329</v>
+        <v>113602</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>157800</v>
+        <v>155509</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.129331407339548</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1098169360642381</v>
+        <v>0.1100813845252315</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1529096103380846</v>
+        <v>0.1506893079752398</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>255</v>
@@ -8623,19 +8623,19 @@
         <v>278497</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>249050</v>
+        <v>246952</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>312947</v>
+        <v>314183</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1137503140933295</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1017229450324154</v>
+        <v>0.10086594134626</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1278210992309096</v>
+        <v>0.1283260618395497</v>
       </c>
     </row>
     <row r="57">
@@ -8971,19 +8971,19 @@
         <v>7596</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3093</v>
+        <v>2655</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16234</v>
+        <v>15488</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1859885431326812</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07573766052244318</v>
+        <v>0.06501670390149547</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3974941476143319</v>
+        <v>0.3792165888302659</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -8992,19 +8992,19 @@
         <v>3548</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1184</v>
+        <v>1259</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7355</v>
+        <v>7326</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1083806817084345</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03616297841733845</v>
+        <v>0.03843840503204275</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2246508468157275</v>
+        <v>0.2237519274782968</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -9013,19 +9013,19 @@
         <v>11144</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6011</v>
+        <v>5785</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20845</v>
+        <v>20372</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1514563286129059</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0816865134956653</v>
+        <v>0.0786194778157925</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2832868937076256</v>
+        <v>0.276866659483602</v>
       </c>
     </row>
     <row r="5">
@@ -9042,19 +9042,19 @@
         <v>9705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4385</v>
+        <v>4551</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16838</v>
+        <v>16726</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2376180576229625</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1073705338811997</v>
+        <v>0.1114408057675979</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4122806995426974</v>
+        <v>0.4095381005863436</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -9063,19 +9063,19 @@
         <v>8904</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5436</v>
+        <v>5379</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13722</v>
+        <v>13178</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2719517401319716</v>
+        <v>0.2719517401319715</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1660193653052404</v>
+        <v>0.1643037463482298</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4191029668861386</v>
+        <v>0.4025029823339455</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -9084,19 +9084,19 @@
         <v>18609</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12303</v>
+        <v>12714</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26945</v>
+        <v>26965</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2528950935816489</v>
+        <v>0.2528950935816487</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1672070199999552</v>
+        <v>0.1727818998151668</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3661856641179488</v>
+        <v>0.3664605100218826</v>
       </c>
     </row>
     <row r="6">
@@ -9113,19 +9113,19 @@
         <v>19252</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12777</v>
+        <v>13119</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26185</v>
+        <v>26172</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4713945277830964</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3128573834599527</v>
+        <v>0.3212268057719949</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6411364400230506</v>
+        <v>0.6408192808973086</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -9134,19 +9134,19 @@
         <v>17316</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13176</v>
+        <v>12820</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21416</v>
+        <v>21931</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5288634518090025</v>
+        <v>0.5288634518090027</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4024185505796236</v>
+        <v>0.3915577380919944</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6540930508820799</v>
+        <v>0.6698200884502015</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -9155,19 +9155,19 @@
         <v>36568</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>28196</v>
+        <v>28328</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45101</v>
+        <v>44593</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.4969657672975413</v>
+        <v>0.4969657672975414</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3831930374833687</v>
+        <v>0.384987606509587</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6129343381074219</v>
+        <v>0.6060295124866071</v>
       </c>
     </row>
     <row r="7">
@@ -9184,19 +9184,19 @@
         <v>4288</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>909</v>
+        <v>1632</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8902</v>
+        <v>9121</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1049988714612599</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02224942399250615</v>
+        <v>0.03996975287714215</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2179787443528322</v>
+        <v>0.2233318551976906</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -9205,19 +9205,19 @@
         <v>2973</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1045</v>
+        <v>1342</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5791</v>
+        <v>6371</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09080412635059133</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03190353222515536</v>
+        <v>0.04099750352352706</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1768627066071569</v>
+        <v>0.1946029705189769</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -9226,19 +9226,19 @@
         <v>7261</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3769</v>
+        <v>3712</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12565</v>
+        <v>12888</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09868281050790401</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05121801175220895</v>
+        <v>0.05044453853943175</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1707575017558952</v>
+        <v>0.1751510733334856</v>
       </c>
     </row>
     <row r="8">
@@ -9377,19 +9377,19 @@
         <v>20619</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12486</v>
+        <v>12159</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29573</v>
+        <v>28707</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3981268625313027</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2410909252140032</v>
+        <v>0.2347614103185377</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5710143679713042</v>
+        <v>0.5542861645802367</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -9398,19 +9398,19 @@
         <v>15749</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10179</v>
+        <v>10492</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21804</v>
+        <v>22443</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3658735980673205</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2364879403153574</v>
+        <v>0.2437609357918085</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5065598614059251</v>
+        <v>0.5213944391048762</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -9419,19 +9419,19 @@
         <v>36368</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26363</v>
+        <v>27253</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47356</v>
+        <v>47228</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3834876392840119</v>
+        <v>0.383487639284012</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2779924707499237</v>
+        <v>0.2873706693578977</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4993562927903979</v>
+        <v>0.4980043709500894</v>
       </c>
     </row>
     <row r="11">
@@ -9448,19 +9448,19 @@
         <v>13460</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6450</v>
+        <v>6270</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22733</v>
+        <v>23099</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.259896913217309</v>
+        <v>0.2598969132173091</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1245450164133683</v>
+        <v>0.1210621472976142</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4389349565607361</v>
+        <v>0.4460061373963339</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -9469,19 +9469,19 @@
         <v>6137</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2994</v>
+        <v>2906</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11352</v>
+        <v>10944</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1425784976584893</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06955299150092299</v>
+        <v>0.06750463214544271</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2637201805272049</v>
+        <v>0.2542407998217985</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -9490,19 +9490,19 @@
         <v>19597</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11296</v>
+        <v>10943</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31132</v>
+        <v>30869</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.206648024928749</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.119116512462558</v>
+        <v>0.1153914003315656</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3282777454246982</v>
+        <v>0.3255068515476951</v>
       </c>
     </row>
     <row r="12">
@@ -9519,19 +9519,19 @@
         <v>13664</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7120</v>
+        <v>6630</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22495</v>
+        <v>23677</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2638391737010704</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1374729310614948</v>
+        <v>0.1280073631266242</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4343388951365</v>
+        <v>0.4571701458373482</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -9540,19 +9540,19 @@
         <v>8759</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4465</v>
+        <v>4840</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14102</v>
+        <v>14649</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2034931682069584</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1037249116922923</v>
+        <v>0.1124421459525922</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3276194304376587</v>
+        <v>0.3403191579971341</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -9561,19 +9561,19 @@
         <v>22424</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>14706</v>
+        <v>14624</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>32036</v>
+        <v>33060</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2364491199749721</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1550707954595954</v>
+        <v>0.1542052260488148</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3378080765355052</v>
+        <v>0.3486015279578205</v>
       </c>
     </row>
     <row r="13">
@@ -9593,16 +9593,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5663</v>
+        <v>5662</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02572379235624177</v>
+        <v>0.02572379235624178</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1093379408110639</v>
+        <v>0.1093250712311163</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -9611,19 +9611,19 @@
         <v>4648</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1462</v>
+        <v>1436</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10939</v>
+        <v>10203</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1079850075362739</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03397059448509369</v>
+        <v>0.03336775017873422</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2541421662140702</v>
+        <v>0.2370399864730017</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -9632,19 +9632,19 @@
         <v>5980</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2346</v>
+        <v>2286</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12413</v>
+        <v>12650</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06306079726496019</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02474251578740263</v>
+        <v>0.02409984431681009</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1308910648105223</v>
+        <v>0.1333849876209759</v>
       </c>
     </row>
     <row r="14">
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8222</v>
+        <v>9461</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05241325819407613</v>
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1587507097694438</v>
+        <v>0.1826781412639538</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -9682,19 +9682,19 @@
         <v>7751</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3929</v>
+        <v>3880</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13233</v>
+        <v>13184</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.180069728530958</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09127651826514455</v>
+        <v>0.09014537432473133</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3074280596987395</v>
+        <v>0.3062838645541074</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -9703,19 +9703,19 @@
         <v>10465</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5489</v>
+        <v>5711</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18485</v>
+        <v>18648</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1103544185473064</v>
+        <v>0.1103544185473065</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05787627705779797</v>
+        <v>0.06021760277868266</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1949151220045648</v>
+        <v>0.1966312535482687</v>
       </c>
     </row>
     <row r="15">
@@ -9807,19 +9807,19 @@
         <v>14666</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9195</v>
+        <v>9640</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19996</v>
+        <v>20329</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5091617377870242</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3192283978369886</v>
+        <v>0.3346608825805901</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.694178725592052</v>
+        <v>0.7057380484730733</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -9828,19 +9828,19 @@
         <v>13138</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8686</v>
+        <v>8634</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18347</v>
+        <v>17774</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4529250872668169</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2994577446271094</v>
+        <v>0.2976424525936274</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6325166066981678</v>
+        <v>0.6127633216740327</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -9849,19 +9849,19 @@
         <v>27804</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20887</v>
+        <v>20654</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35443</v>
+        <v>35052</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4809451028304504</v>
+        <v>0.4809451028304503</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3612842970750717</v>
+        <v>0.3572638981520904</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6130726211739977</v>
+        <v>0.6063152097996303</v>
       </c>
     </row>
     <row r="17">
@@ -9878,19 +9878,19 @@
         <v>4059</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>943</v>
+        <v>1290</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9173</v>
+        <v>8763</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1409029230940865</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03272597746852299</v>
+        <v>0.04478034136054779</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3184344494442266</v>
+        <v>0.3042158844414898</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -9899,19 +9899,19 @@
         <v>5686</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2547</v>
+        <v>2702</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11596</v>
+        <v>10621</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1960334649688324</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08780880448817634</v>
+        <v>0.09315255409455296</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.399751046012208</v>
+        <v>0.3661583729324542</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -9920,19 +9920,19 @@
         <v>9745</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4812</v>
+        <v>5438</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16176</v>
+        <v>17265</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1685645700920501</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08323668341055994</v>
+        <v>0.09405793485177592</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2797982448122815</v>
+        <v>0.2986465488171506</v>
       </c>
     </row>
     <row r="18">
@@ -9949,19 +9949,19 @@
         <v>6306</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2489</v>
+        <v>2239</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11604</v>
+        <v>11879</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2189372005344605</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08639762830402979</v>
+        <v>0.07772532194266669</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4028425721711523</v>
+        <v>0.4124042955735806</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -9970,19 +9970,19 @@
         <v>6502</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3230</v>
+        <v>3288</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10865</v>
+        <v>10774</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2241463070370884</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1113656053734782</v>
+        <v>0.1133498337362113</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3745714289853963</v>
+        <v>0.3714334244815369</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
@@ -9991,19 +9991,19 @@
         <v>12808</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8035</v>
+        <v>7985</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>19871</v>
+        <v>19877</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2215508600478725</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1389926244252602</v>
+        <v>0.1381187880016438</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3437229346285744</v>
+        <v>0.3438245770761825</v>
       </c>
     </row>
     <row r="19">
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5284</v>
+        <v>5159</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0565054886193611</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1834488278119986</v>
+        <v>0.17909003136512</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -10041,19 +10041,19 @@
         <v>3681</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1294</v>
+        <v>1327</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7006</v>
+        <v>7390</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1268951407272624</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04461933307506124</v>
+        <v>0.04573454928834762</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2415341314474032</v>
+        <v>0.2547711263532587</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -10062,19 +10062,19 @@
         <v>5308</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2301</v>
+        <v>2675</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9862</v>
+        <v>10254</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0918233658377991</v>
+        <v>0.09182336583779907</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03980727772077738</v>
+        <v>0.04627138892455945</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1705923986542384</v>
+        <v>0.1773652130864361</v>
       </c>
     </row>
     <row r="20">
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6646</v>
+        <v>6076</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0744926499650676</v>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2307155973322942</v>
+        <v>0.2109509992371711</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -10128,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6825</v>
+        <v>6770</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03711610119182806</v>
@@ -10137,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.118050908420005</v>
+        <v>0.1171082158924096</v>
       </c>
     </row>
     <row r="21">
@@ -10229,19 +10229,19 @@
         <v>25438</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14788</v>
+        <v>15551</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38188</v>
+        <v>39132</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3629677977768935</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2110097165459062</v>
+        <v>0.2218926353627609</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.544899569798356</v>
+        <v>0.5583684893535753</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -10250,19 +10250,19 @@
         <v>21214</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14616</v>
+        <v>14194</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29062</v>
+        <v>28596</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4496849479329425</v>
+        <v>0.4496849479329424</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.309833563120934</v>
+        <v>0.3008783311801113</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6160497979125248</v>
+        <v>0.606165199087209</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -10271,19 +10271,19 @@
         <v>46652</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32780</v>
+        <v>32440</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60929</v>
+        <v>61512</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3978556315226423</v>
+        <v>0.3978556315226422</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2795521624157172</v>
+        <v>0.2766503184213948</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5196079464554076</v>
+        <v>0.5245788246504773</v>
       </c>
     </row>
     <row r="23">
@@ -10300,19 +10300,19 @@
         <v>10586</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3277</v>
+        <v>3427</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25838</v>
+        <v>23391</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.151047397844015</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04675482780615526</v>
+        <v>0.04890607727604861</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3686832933472067</v>
+        <v>0.3337597804906733</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -10321,19 +10321,19 @@
         <v>7087</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3337</v>
+        <v>3442</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13625</v>
+        <v>13050</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1502319050689881</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07073403034634489</v>
+        <v>0.07296949075576009</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2888215602446198</v>
+        <v>0.2766300142223288</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>12</v>
@@ -10342,19 +10342,19 @@
         <v>17673</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9063</v>
+        <v>9003</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31845</v>
+        <v>31833</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.1507193107666053</v>
+        <v>0.1507193107666052</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07729095702802738</v>
+        <v>0.07678223237245689</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2715786808434091</v>
+        <v>0.2714794883973912</v>
       </c>
     </row>
     <row r="24">
@@ -10371,19 +10371,19 @@
         <v>17124</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8391</v>
+        <v>8542</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29595</v>
+        <v>29829</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2443445458968473</v>
+        <v>0.2443445458968472</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1197295180339564</v>
+        <v>0.1218888993063938</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4222891652802529</v>
+        <v>0.4256206535677413</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -10392,19 +10392,19 @@
         <v>7550</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3340</v>
+        <v>3324</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14843</v>
+        <v>13882</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1600373966268968</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07079440718269182</v>
+        <v>0.07045354536520465</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3146368405615448</v>
+        <v>0.2942675210390021</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -10413,19 +10413,19 @@
         <v>24674</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14483</v>
+        <v>14948</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>38589</v>
+        <v>37649</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2104262978684569</v>
+        <v>0.2104262978684568</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1235089932979096</v>
+        <v>0.1274824891172053</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3290906210554514</v>
+        <v>0.3210715552258401</v>
       </c>
     </row>
     <row r="25">
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8906</v>
+        <v>8697</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03508331789453163</v>
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1270768340885501</v>
+        <v>0.1241017044220539</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -10463,19 +10463,19 @@
         <v>7764</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3679</v>
+        <v>3886</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15247</v>
+        <v>14352</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.164579964392276</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07797899321126892</v>
+        <v>0.08237089332227844</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.32320980097695</v>
+        <v>0.3042306122068053</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -10484,19 +10484,19 @@
         <v>10223</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5142</v>
+        <v>5126</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19739</v>
+        <v>19313</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08718209495899154</v>
+        <v>0.08718209495899153</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04385268231209258</v>
+        <v>0.04371658165454009</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1683325642161408</v>
+        <v>0.1647041303171867</v>
       </c>
     </row>
     <row r="26">
@@ -10513,19 +10513,19 @@
         <v>14476</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6128</v>
+        <v>6580</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26847</v>
+        <v>26526</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2065569405877125</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0874462010430898</v>
+        <v>0.09388451602021577</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3830794487328476</v>
+        <v>0.3784976418610173</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -10534,19 +10534,19 @@
         <v>3560</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1280</v>
+        <v>1244</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7590</v>
+        <v>7851</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.07546578597889646</v>
+        <v>0.07546578597889644</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02713647287361017</v>
+        <v>0.02636360744159529</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.160896580128996</v>
+        <v>0.1664185362898996</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -10555,19 +10555,19 @@
         <v>18036</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9690</v>
+        <v>9140</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31614</v>
+        <v>31094</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1538166648833041</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08263655668684812</v>
+        <v>0.07795102575243805</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2696077362363131</v>
+        <v>0.265171667823264</v>
       </c>
     </row>
     <row r="27">
@@ -10659,19 +10659,19 @@
         <v>2243</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>691</v>
+        <v>717</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5842</v>
+        <v>6221</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1011819215573777</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03114357253034969</v>
+        <v>0.03235654851271368</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2634798860976085</v>
+        <v>0.2805851798934131</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -10683,16 +10683,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6764</v>
+        <v>5863</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.07087323873660414</v>
+        <v>0.07087323873660416</v>
       </c>
       <c r="O28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2907473882079302</v>
+        <v>0.2520048571363958</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -10701,19 +10701,19 @@
         <v>3892</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1480</v>
+        <v>1460</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8919</v>
+        <v>8246</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.0856630338675894</v>
+        <v>0.08566303386758939</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03258329367478578</v>
+        <v>0.03213967753917774</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1962973318294045</v>
+        <v>0.1814750137535973</v>
       </c>
     </row>
     <row r="29">
@@ -10730,19 +10730,19 @@
         <v>2988</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6461</v>
+        <v>6843</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1347617308408579</v>
+        <v>0.1347617308408578</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03254308331878852</v>
+        <v>0.03337781320149553</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2914128470646097</v>
+        <v>0.3086113698988687</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -10751,19 +10751,19 @@
         <v>6496</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3367</v>
+        <v>3554</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10285</v>
+        <v>10294</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2791987010918461</v>
+        <v>0.2791987010918462</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1447161588882213</v>
+        <v>0.1527440250946148</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4420611154841395</v>
+        <v>0.4424669825716464</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>16</v>
@@ -10772,19 +10772,19 @@
         <v>9483</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5832</v>
+        <v>5537</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>14891</v>
+        <v>14633</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.208717472594243</v>
+        <v>0.2087174725942429</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1283560794389193</v>
+        <v>0.1218648294678445</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3277181164520152</v>
+        <v>0.3220419764884476</v>
       </c>
     </row>
     <row r="30">
@@ -10801,19 +10801,19 @@
         <v>11349</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7105</v>
+        <v>6594</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15816</v>
+        <v>15213</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5118491734896916</v>
+        <v>0.5118491734896917</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.320433220618305</v>
+        <v>0.2974173830422283</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7133463464938053</v>
+        <v>0.6861154628865485</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -10822,19 +10822,19 @@
         <v>13940</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9949</v>
+        <v>9860</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17874</v>
+        <v>17280</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.599195449292368</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4276429359601805</v>
+        <v>0.4238149215893783</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7682726731984542</v>
+        <v>0.7427489518091915</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>36</v>
@@ -10843,19 +10843,19 @@
         <v>25289</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18938</v>
+        <v>19471</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>30849</v>
+        <v>31065</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5565728934982016</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4168020465759321</v>
+        <v>0.4285370286237161</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6789323105287569</v>
+        <v>0.6836914355149244</v>
       </c>
     </row>
     <row r="31">
@@ -10872,19 +10872,19 @@
         <v>5011</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2113</v>
+        <v>2163</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9175</v>
+        <v>9299</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2260146574846235</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09530881958240556</v>
+        <v>0.09754146130099003</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4138009382184976</v>
+        <v>0.4194169067457194</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -10896,16 +10896,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2351</v>
+        <v>2067</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.01858496704302772</v>
+        <v>0.01858496704302773</v>
       </c>
       <c r="O31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1010461880865784</v>
+        <v>0.08883927633312598</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -10914,19 +10914,19 @@
         <v>5444</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2383</v>
+        <v>2436</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10808</v>
+        <v>10698</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1198048928265456</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0524548648565087</v>
+        <v>0.05362202911798473</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2378776231956627</v>
+        <v>0.2354517340369486</v>
       </c>
     </row>
     <row r="32">
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3090</v>
+        <v>2878</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02619251662744915</v>
@@ -10955,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1393867650546547</v>
+        <v>0.1297970668789931</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -10967,16 +10967,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3759</v>
+        <v>3300</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.03214764383615384</v>
+        <v>0.03214764383615385</v>
       </c>
       <c r="O32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1615685203045829</v>
+        <v>0.1418318549938949</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -10988,16 +10988,16 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3984</v>
+        <v>4313</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.0292417072134204</v>
+        <v>0.02924170721342039</v>
       </c>
       <c r="V32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08768473312916858</v>
+        <v>0.09491193004375009</v>
       </c>
     </row>
     <row r="33">
@@ -11089,19 +11089,19 @@
         <v>10887</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6062</v>
+        <v>6397</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>16077</v>
+        <v>16537</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.325381637574394</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.181165005190091</v>
+        <v>0.1911981319044473</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4804783897990114</v>
+        <v>0.4942334209961219</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -11110,19 +11110,19 @@
         <v>4959</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2036</v>
+        <v>1825</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8953</v>
+        <v>8763</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.2503013063857117</v>
+        <v>0.2503013063857116</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1027684677432255</v>
+        <v>0.092136122609473</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4519308243662346</v>
+        <v>0.4423491435005056</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>19</v>
@@ -11131,19 +11131,19 @@
         <v>15846</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10685</v>
+        <v>9805</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>22968</v>
+        <v>22404</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2974599319557652</v>
+        <v>0.2974599319557651</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2005733521938707</v>
+        <v>0.1840580532772734</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4311582954430846</v>
+        <v>0.4205652892912941</v>
       </c>
     </row>
     <row r="35">
@@ -11160,19 +11160,19 @@
         <v>2815</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7748</v>
+        <v>7415</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.0841338756132106</v>
+        <v>0.08413387561321062</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02206315919788376</v>
+        <v>0.0224909228670437</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.23157437518317</v>
+        <v>0.2216049340314154</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -11184,16 +11184,16 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5278</v>
+        <v>4942</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.07937741865345242</v>
+        <v>0.07937741865345241</v>
       </c>
       <c r="O35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2664393909455343</v>
+        <v>0.2494583645470156</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -11202,19 +11202,19 @@
         <v>4388</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1423</v>
+        <v>1489</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>9374</v>
+        <v>9620</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08236499168694918</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02671591479967531</v>
+        <v>0.02795250563925396</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1759594730345609</v>
+        <v>0.1805924156238834</v>
       </c>
     </row>
     <row r="36">
@@ -11231,19 +11231,19 @@
         <v>7798</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3575</v>
+        <v>4046</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12893</v>
+        <v>13612</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.233039759629176</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1068560126638623</v>
+        <v>0.1209137521415384</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3853171996764905</v>
+        <v>0.4068214301234365</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -11252,19 +11252,19 @@
         <v>4941</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2289</v>
+        <v>2313</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9173</v>
+        <v>9141</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2493932350635687</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1155636699732278</v>
+        <v>0.1167768940565371</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4630115216566101</v>
+        <v>0.4614073712088994</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>16</v>
@@ -11273,19 +11273,19 @@
         <v>12738</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>7801</v>
+        <v>7364</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>19459</v>
+        <v>18831</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2391214713064071</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.146434801829669</v>
+        <v>0.1382370989804094</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.365274727927077</v>
+        <v>0.3534899596419812</v>
       </c>
     </row>
     <row r="37">
@@ -11302,19 +11302,19 @@
         <v>8786</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4475</v>
+        <v>4180</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14298</v>
+        <v>13662</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2625774924068854</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1337329842639461</v>
+        <v>0.124927276152239</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4273224490938977</v>
+        <v>0.4083171125610632</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>7</v>
@@ -11323,19 +11323,19 @@
         <v>4536</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2063</v>
+        <v>2085</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8633</v>
+        <v>8759</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.2289385979198569</v>
+        <v>0.2289385979198568</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1041158909768314</v>
+        <v>0.1052431001212552</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4357703902423668</v>
+        <v>0.4421446346434274</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>17</v>
@@ -11344,19 +11344,19 @@
         <v>13321</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>8603</v>
+        <v>8377</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>19784</v>
+        <v>19957</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2500674875316737</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1614888052575075</v>
+        <v>0.1572439367564366</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3713784461207688</v>
+        <v>0.3746237499485296</v>
       </c>
     </row>
     <row r="38">
@@ -11373,19 +11373,19 @@
         <v>3174</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>7822</v>
+        <v>7748</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.09486723477633414</v>
+        <v>0.09486723477633413</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02513030743030745</v>
+        <v>0.02568761786680375</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2337846485911572</v>
+        <v>0.2315712813854724</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>5</v>
@@ -11394,19 +11394,19 @@
         <v>3804</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1435</v>
+        <v>1354</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>7560</v>
+        <v>7721</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.1919894419774103</v>
+        <v>0.1919894419774102</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07243973414480552</v>
+        <v>0.06833286937081086</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3816189347532813</v>
+        <v>0.3897271131779739</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>8</v>
@@ -11415,19 +11415,19 @@
         <v>6978</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3256</v>
+        <v>3334</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>12267</v>
+        <v>13033</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1309861175192048</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.06112224161313403</v>
+        <v>0.0625932449884381</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2302785435605567</v>
+        <v>0.2446541046022878</v>
       </c>
     </row>
     <row r="39">
@@ -11519,19 +11519,19 @@
         <v>31518</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>22718</v>
+        <v>21693</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>44638</v>
+        <v>42125</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.3448062789512039</v>
+        <v>0.3448062789512038</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.24853424471406</v>
+        <v>0.2373162014657417</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4883278787056057</v>
+        <v>0.4608358683128099</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>46</v>
@@ -11540,19 +11540,19 @@
         <v>37425</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>29021</v>
+        <v>28562</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>46569</v>
+        <v>47064</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.4014891588381402</v>
+        <v>0.4014891588381403</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3113273430011535</v>
+        <v>0.3064020873752762</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.49958286978632</v>
+        <v>0.5048969207882217</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>72</v>
@@ -11561,19 +11561,19 @@
         <v>68944</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>54547</v>
+        <v>55786</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>82504</v>
+        <v>83490</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3734250766656711</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2954491075202189</v>
+        <v>0.3021577610465428</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4468735572533516</v>
+        <v>0.4522113503708998</v>
       </c>
     </row>
     <row r="41">
@@ -11590,19 +11590,19 @@
         <v>19557</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>12068</v>
+        <v>12227</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>28696</v>
+        <v>28765</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2139526214498129</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1320259034057683</v>
+        <v>0.133762375716961</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3139310964164267</v>
+        <v>0.3146867864981243</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>16</v>
@@ -11611,19 +11611,19 @@
         <v>13083</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>7639</v>
+        <v>8059</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>19625</v>
+        <v>21471</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1403527940086826</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.08194592840093277</v>
+        <v>0.08645908425245503</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2105343161267545</v>
+        <v>0.2303344843475917</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>33</v>
@@ -11632,19 +11632,19 @@
         <v>32640</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>21795</v>
+        <v>23090</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>43026</v>
+        <v>44388</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1767925728150426</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1180524451219225</v>
+        <v>0.1250668235695465</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2330445158948708</v>
+        <v>0.2404223993989699</v>
       </c>
     </row>
     <row r="42">
@@ -11661,19 +11661,19 @@
         <v>21711</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>14055</v>
+        <v>13357</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>32640</v>
+        <v>32947</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.2375189700844578</v>
+        <v>0.2375189700844577</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1537595532396326</v>
+        <v>0.146122489757159</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3570722960182573</v>
+        <v>0.3604354020143382</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>29</v>
@@ -11682,19 +11682,19 @@
         <v>23907</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>16057</v>
+        <v>16662</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>31816</v>
+        <v>32760</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.2564695319012089</v>
+        <v>0.256469531901209</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1722579986922912</v>
+        <v>0.1787500630310129</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3413186296708759</v>
+        <v>0.3514400540807319</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>46</v>
@@ -11703,19 +11703,19 @@
         <v>45618</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>34980</v>
+        <v>34255</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>59808</v>
+        <v>58626</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2470869789134181</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1894634188993382</v>
+        <v>0.185537596532187</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3239423303010195</v>
+        <v>0.3175435878527722</v>
       </c>
     </row>
     <row r="43">
@@ -11732,19 +11732,19 @@
         <v>11282</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>5568</v>
+        <v>5126</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>21401</v>
+        <v>20473</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.1234264028926343</v>
+        <v>0.1234264028926342</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.06090835026077379</v>
+        <v>0.05607728848526136</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2341198638059561</v>
+        <v>0.223975530323129</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>9</v>
@@ -11753,19 +11753,19 @@
         <v>6998</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>3516</v>
+        <v>3361</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>12763</v>
+        <v>12411</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.07507809238972016</v>
+        <v>0.07507809238972017</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03771395617511766</v>
+        <v>0.03605150466587943</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1369200183668808</v>
+        <v>0.1331420640917653</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>17</v>
@@ -11774,19 +11774,19 @@
         <v>18281</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>11355</v>
+        <v>11344</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>31205</v>
+        <v>29744</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.09901567215913742</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06150116793762695</v>
+        <v>0.06144229353211843</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1690172296067223</v>
+        <v>0.1611045017997178</v>
       </c>
     </row>
     <row r="44">
@@ -11803,19 +11803,19 @@
         <v>7340</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2429</v>
+        <v>2750</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>16521</v>
+        <v>17343</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.08029572662189119</v>
+        <v>0.08029572662189116</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02657229048335713</v>
+        <v>0.03008967167881351</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1807413774520442</v>
+        <v>0.1897253189248765</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>15</v>
@@ -11824,19 +11824,19 @@
         <v>11802</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>7175</v>
+        <v>6897</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>18613</v>
+        <v>18080</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.126610422862248</v>
+        <v>0.1266104228622481</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0769715313250753</v>
+        <v>0.0739869349199186</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1996767204657124</v>
+        <v>0.1939615251087215</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>20</v>
@@ -11845,19 +11845,19 @@
         <v>19142</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>12218</v>
+        <v>11958</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>29810</v>
+        <v>29821</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1036796994467307</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.06617851649571317</v>
+        <v>0.06476972659424023</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1614639561462591</v>
+        <v>0.1615217173024916</v>
       </c>
     </row>
     <row r="45">
@@ -11949,19 +11949,19 @@
         <v>29307</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>19986</v>
+        <v>19649</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>41063</v>
+        <v>41190</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2140841104282839</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1459981974698395</v>
+        <v>0.1435342091877509</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2999577482969649</v>
+        <v>0.3008844471850295</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>25</v>
@@ -11970,19 +11970,19 @@
         <v>22126</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>15216</v>
+        <v>15867</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>31206</v>
+        <v>31022</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2194215488988113</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1508970102140528</v>
+        <v>0.1573498658355399</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3094613660882748</v>
+        <v>0.3076385845908868</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>48</v>
@@ -11991,19 +11991,19 @@
         <v>51434</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>39002</v>
+        <v>38848</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>66029</v>
+        <v>65517</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2163480948366419</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1640574362428727</v>
+        <v>0.1634089271727368</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2777402516178415</v>
+        <v>0.2755880638829221</v>
       </c>
     </row>
     <row r="47">
@@ -12020,19 +12020,19 @@
         <v>31085</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>22480</v>
+        <v>21374</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>44089</v>
+        <v>43085</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.2270704044711796</v>
+        <v>0.2270704044711795</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1642154562281394</v>
+        <v>0.1561310712560171</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3220642108654185</v>
+        <v>0.3147301203774556</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>16</v>
@@ -12041,19 +12041,19 @@
         <v>13145</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>7795</v>
+        <v>8023</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>19649</v>
+        <v>20661</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1303586552569795</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07729779992574924</v>
+        <v>0.07956404312617794</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1948501973829444</v>
+        <v>0.2048900218303193</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>43</v>
@@ -12062,19 +12062,19 @@
         <v>44230</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>32153</v>
+        <v>32457</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>56123</v>
+        <v>57709</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.186048125051003</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1352492457785513</v>
+        <v>0.1365265332496887</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2360722744356444</v>
+        <v>0.2427445195582735</v>
       </c>
     </row>
     <row r="48">
@@ -12091,19 +12091,19 @@
         <v>37312</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>27271</v>
+        <v>26126</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>50457</v>
+        <v>49967</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2725620853664705</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1992087514167526</v>
+        <v>0.1908453536769618</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3685796983215858</v>
+        <v>0.3650054581754837</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>43</v>
@@ -12112,19 +12112,19 @@
         <v>36326</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>27801</v>
+        <v>28048</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>44981</v>
+        <v>45538</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3602375537758911</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2756952310427576</v>
+        <v>0.2781433534096192</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4460630724558526</v>
+        <v>0.4515906825295888</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>74</v>
@@ -12133,19 +12133,19 @@
         <v>73639</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>61490</v>
+        <v>60214</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>90419</v>
+        <v>88526</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3097514402546771</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2586502261252716</v>
+        <v>0.2532822341273251</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3803346164000797</v>
+        <v>0.3723707161776436</v>
       </c>
     </row>
     <row r="49">
@@ -12162,19 +12162,19 @@
         <v>27185</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>16877</v>
+        <v>17780</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>38815</v>
+        <v>40104</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1985804873551226</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1232845074408558</v>
+        <v>0.1298786334941706</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2835401087618298</v>
+        <v>0.2929541819150373</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>29</v>
@@ -12183,19 +12183,19 @@
         <v>23479</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>16883</v>
+        <v>16534</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>31642</v>
+        <v>31583</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.232833990249263</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1674218868964168</v>
+        <v>0.1639652705050383</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3137883889770087</v>
+        <v>0.3131990622040655</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>49</v>
@@ -12204,19 +12204,19 @@
         <v>50664</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>37554</v>
+        <v>39008</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>64865</v>
+        <v>65970</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.2131098157796461</v>
+        <v>0.213109815779646</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1579642152888433</v>
+        <v>0.1640827311149215</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2728477975344231</v>
+        <v>0.2774949613046381</v>
       </c>
     </row>
     <row r="50">
@@ -12233,19 +12233,19 @@
         <v>12006</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>5642</v>
+        <v>5904</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>20905</v>
+        <v>21616</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.08770291237894338</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.04121651154625307</v>
+        <v>0.04312657470663078</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1527070060805372</v>
+        <v>0.1579043700523491</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>7</v>
@@ -12254,19 +12254,19 @@
         <v>5763</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>3003</v>
+        <v>2206</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>11086</v>
+        <v>10671</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.05714825181905502</v>
+        <v>0.05714825181905501</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02977681299992806</v>
+        <v>0.02187748257705974</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1099325049223894</v>
+        <v>0.1058244392582289</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>17</v>
@@ -12275,19 +12275,19 @@
         <v>17769</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>10722</v>
+        <v>10941</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>27851</v>
+        <v>27447</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.07474252407803206</v>
+        <v>0.07474252407803203</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.04510257325057625</v>
+        <v>0.04602310597637272</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1171505738196159</v>
+        <v>0.1154508081779951</v>
       </c>
     </row>
     <row r="51">
@@ -12379,19 +12379,19 @@
         <v>142276</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>120984</v>
+        <v>118968</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>165976</v>
+        <v>168831</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.29924081498601</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.254457584393375</v>
+        <v>0.2502188094216274</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.3490867797863285</v>
+        <v>0.3550913337379059</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>141</v>
@@ -12400,19 +12400,19 @@
         <v>119808</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>102682</v>
+        <v>103829</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>137164</v>
+        <v>139366</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.3079124123418891</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.26389769765424</v>
+        <v>0.2668456858082228</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.3525178679345057</v>
+        <v>0.358175816337877</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>254</v>
@@ -12421,19 +12421,19 @@
         <v>262085</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>233534</v>
+        <v>232766</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>292448</v>
+        <v>292763</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.3031435275554646</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2701202266807936</v>
+        <v>0.2692322316404966</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.3382632873283412</v>
+        <v>0.3386283870216325</v>
       </c>
     </row>
     <row r="53">
@@ -12450,19 +12450,19 @@
         <v>94255</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>74242</v>
+        <v>74735</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>116210</v>
+        <v>115500</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.1982400516128593</v>
+        <v>0.1982400516128592</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1561491131541023</v>
+        <v>0.1571848252478469</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2444172828533892</v>
+        <v>0.2429232844411998</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>84</v>
@@ -12471,19 +12471,19 @@
         <v>62111</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>50668</v>
+        <v>49522</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>76331</v>
+        <v>75137</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1596282810666628</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1302192659183637</v>
+        <v>0.1272732912903702</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1961736440742322</v>
+        <v>0.193105613162719</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>159</v>
@@ -12492,19 +12492,19 @@
         <v>156366</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>133694</v>
+        <v>135394</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>181712</v>
+        <v>180592</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1808625563192874</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1546384789129193</v>
+        <v>0.1566054654266192</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2101799668069031</v>
+        <v>0.2088846056002323</v>
       </c>
     </row>
     <row r="54">
@@ -12521,19 +12521,19 @@
         <v>134518</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>112983</v>
+        <v>112124</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>158766</v>
+        <v>157462</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2829231796819452</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2376306739517803</v>
+        <v>0.2358234319119155</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3339225031382522</v>
+        <v>0.331180216426799</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>161</v>
@@ -12542,19 +12542,19 @@
         <v>119241</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>104365</v>
+        <v>103427</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>136292</v>
+        <v>136323</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.3064530022467322</v>
+        <v>0.3064530022467323</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2682210756540928</v>
+        <v>0.2658116901394134</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3502763382773488</v>
+        <v>0.3503552313376103</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>278</v>
@@ -12563,19 +12563,19 @@
         <v>253758</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>227475</v>
+        <v>226186</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>281443</v>
+        <v>281279</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2935129396202769</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2631118289717337</v>
+        <v>0.2616210752979445</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3255348503787014</v>
+        <v>0.325345340998527</v>
       </c>
     </row>
     <row r="55">
@@ -12592,19 +12592,19 @@
         <v>61971</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>46035</v>
+        <v>46915</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>78395</v>
+        <v>79954</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1303398813522864</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.09682336217925942</v>
+        <v>0.09867370975545638</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1648844415411847</v>
+        <v>0.1681618189275318</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>71</v>
@@ -12613,19 +12613,19 @@
         <v>54511</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>41545</v>
+        <v>43934</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>67611</v>
+        <v>69129</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1400965894075108</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1067728411299582</v>
+        <v>0.1129114802466359</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1737632763866754</v>
+        <v>0.1776648725708043</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>125</v>
@@ -12634,19 +12634,19 @@
         <v>116482</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>95647</v>
+        <v>95989</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>138626</v>
+        <v>136871</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1347309555224689</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1106316216311969</v>
+        <v>0.1110274872322884</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1603435505739638</v>
+        <v>0.1583134582877245</v>
       </c>
     </row>
     <row r="56">
@@ -12663,19 +12663,19 @@
         <v>42437</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>29671</v>
+        <v>28189</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>61446</v>
+        <v>60312</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.08925607236689916</v>
+        <v>0.08925607236689914</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.06240483294483101</v>
+        <v>0.0592885343017674</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1292355532077102</v>
+        <v>0.1268516122797647</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>42</v>
@@ -12684,19 +12684,19 @@
         <v>33427</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>24594</v>
+        <v>23917</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>45180</v>
+        <v>44381</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.08590971493720519</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.06320632997663715</v>
+        <v>0.06146646844917802</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1161134316289215</v>
+        <v>0.1140621215226989</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>72</v>
@@ -12705,19 +12705,19 @@
         <v>75865</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>59770</v>
+        <v>59528</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>97806</v>
+        <v>97575</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.08775002098250222</v>
+        <v>0.0877500209825022</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.06913413383775986</v>
+        <v>0.06885365737947684</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1131286505512078</v>
+        <v>0.1128616094540056</v>
       </c>
     </row>
     <row r="57">
